--- a/MB/attribute_dependencies.xlsx
+++ b/MB/attribute_dependencies.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIVER37\Documents\github\cas\MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{021AB990-F40E-46DA-A877-52EF55BD8D4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80049A07-C104-454D-BE34-AFC7950A1F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13330" windowHeight="6250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13330" windowHeight="6250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_dependencies" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="651">
   <si>
     <t>inventory_id</t>
   </si>
@@ -1966,16 +1966,19 @@
     <t>yearphoto</t>
   </si>
   <si>
-    <t>inventory_id, src_filename, mu_id, '', ogc_fid</t>
-  </si>
-  <si>
     <t>sp1, sp2, sp3, sp4, sp5, sp6, us2sp1, us2sp2, us2sp3, us2sp4, us2sp5, us3sp1, us3sp2, us3sp3, us3sp4, us3sp5, us4sp1, us4sp2, us4sp3, us4sp4, us4sp5, us5sp1, us5sp2, us5sp3, us5sp4, us5sp5</t>
+  </si>
+  <si>
+    <t>inventory_id, src_filename, mu_id, 'poly_id', ogc_fid</t>
+  </si>
+  <si>
+    <t>sp1, sp2, sp3, sp4, sp5, sp6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2817,12 +2820,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="A89:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9582,10 +9585,13 @@
         <v>87</v>
       </c>
       <c r="E90" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+      <c r="F90" t="s">
+        <v>196</v>
       </c>
       <c r="G90" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91" spans="1:70" x14ac:dyDescent="0.3">
@@ -9602,7 +9608,7 @@
         <v>87</v>
       </c>
       <c r="E91" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="92" spans="1:70" x14ac:dyDescent="0.3">
@@ -9619,7 +9625,7 @@
         <v>87</v>
       </c>
       <c r="E92" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93" spans="1:70" x14ac:dyDescent="0.3">
@@ -9636,7 +9642,7 @@
         <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="94" spans="1:70" x14ac:dyDescent="0.3">
@@ -9653,7 +9659,7 @@
         <v>87</v>
       </c>
       <c r="E94" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="95" spans="1:70" x14ac:dyDescent="0.3">
@@ -9670,7 +9676,7 @@
         <v>87</v>
       </c>
       <c r="E95" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="96" spans="1:70" x14ac:dyDescent="0.3">
@@ -9710,6 +9716,12 @@
         <v>87</v>
       </c>
       <c r="E97" t="s">
+        <v>649</v>
+      </c>
+      <c r="F97" t="s">
+        <v>196</v>
+      </c>
+      <c r="G97" t="s">
         <v>648</v>
       </c>
       <c r="O97" t="s">
@@ -9730,7 +9742,7 @@
         <v>87</v>
       </c>
       <c r="E98" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -9747,7 +9759,7 @@
         <v>87</v>
       </c>
       <c r="E99" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -9764,7 +9776,7 @@
         <v>87</v>
       </c>
       <c r="E100" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -9781,7 +9793,7 @@
         <v>87</v>
       </c>
       <c r="E101" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -9798,7 +9810,7 @@
         <v>87</v>
       </c>
       <c r="E102" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/MB/attribute_dependencies.xlsx
+++ b/MB/attribute_dependencies.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIVER37\Documents\github\cas\MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80049A07-C104-454D-BE34-AFC7950A1F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCE794-D631-4868-B92E-82131E041D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13330" windowHeight="6250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_dependencies" sheetId="1" r:id="rId1"/>
+    <sheet name="mb_fri01" sheetId="2" r:id="rId2"/>
+    <sheet name="mb_fli01" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5590" uniqueCount="946">
   <si>
     <t>inventory_id</t>
   </si>
@@ -1973,13 +1975,898 @@
   </si>
   <si>
     <t>sp1, sp2, sp3, sp4, sp5, sp6</t>
+  </si>
+  <si>
+    <t>CAS ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>rule_id</t>
+  </si>
+  <si>
+    <t>target_attribute</t>
+  </si>
+  <si>
+    <t>target_attribute_type</t>
+  </si>
+  <si>
+    <t>validation_rules</t>
+  </si>
+  <si>
+    <t>translation_rules</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>desc_uptodate_with_rules</t>
+  </si>
+  <si>
+    <t>CAS_ID</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>notEmpty(inventory_id);notNull(map_sheet_id);notNull(orig_stand_id);notNull(src_filename);notNull(ogc_fid)</t>
+  </si>
+  <si>
+    <t>padConcat({inventory_id, src_filename, map_sheet_id, orig_stand_id, ogc_fid}, {4,15,10,10,7}, {'x','x','x','0','0'}, '-', 'TRUE', 'TRUE')</t>
+  </si>
+  <si>
+    <t>The combination of ogc_fid, ogc_fidID, MAPSHEET and SRC_FILENAME is a unique identifier across all counties. All four are needed to create the unique id that traces back to the source polygon.</t>
+  </si>
+  <si>
+    <t>INVENTORY_ID</t>
+  </si>
+  <si>
+    <t>notEmpty(inventory_id)</t>
+  </si>
+  <si>
+    <t>copyText(inventory_id)</t>
+  </si>
+  <si>
+    <t>Copies source value</t>
+  </si>
+  <si>
+    <t>ORIG_STAND_ID</t>
+  </si>
+  <si>
+    <t>notNull(orig_stand_id);isInt(orig_stand_id);isGreaterThan(orig_stand_id, 0)</t>
+  </si>
+  <si>
+    <t>copyText(orig_stand_id)</t>
+  </si>
+  <si>
+    <t>Copies source value to ORIG_STAND_ID</t>
+  </si>
+  <si>
+    <t>STAND_STRUCTURE</t>
+  </si>
+  <si>
+    <t>notEmpty({species_1, species_2, species_3, species_4 ,species_5}, TRUE|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>copyText('S')</t>
+  </si>
+  <si>
+    <t>Only one LYR layer possible. If species info present, stand structure is S.</t>
+  </si>
+  <si>
+    <t>NUM_OF_LAYERS</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>true()</t>
+  </si>
+  <si>
+    <t>mb_fri01_countOfNotNull({species_1, species_2, species_3, species_4, species_5}, landtype, 2, 'FALSE')</t>
+  </si>
+  <si>
+    <t>Counts number of layers based on the presence of a not null value for attributes representing each layer. Custom function decides if NFL layer is present based on rules in NFL table.</t>
+  </si>
+  <si>
+    <t>MAP_SHEET_ID</t>
+  </si>
+  <si>
+    <t>notNull(map_sheet_id)</t>
+  </si>
+  <si>
+    <t>copyText(map_sheet_id)</t>
+  </si>
+  <si>
+    <t>CASFRI_AREA</t>
+  </si>
+  <si>
+    <t>double precision</t>
+  </si>
+  <si>
+    <t>geoIsValid(wkb_geometry, TRUE)</t>
+  </si>
+  <si>
+    <t>geoArea(wkb_geometry)</t>
+  </si>
+  <si>
+    <t>Validates geometry then calculates area</t>
+  </si>
+  <si>
+    <t>CASFRI_PERIMETER</t>
+  </si>
+  <si>
+    <t>geoPerimeter(wkb_geometry)</t>
+  </si>
+  <si>
+    <t>Validates geometry then calculates perimeter</t>
+  </si>
+  <si>
+    <t>SRC_INV_AREA</t>
+  </si>
+  <si>
+    <t>notNull(src_inv_area);isNumeric(src_inv_area);isGreaterThan(src_inv_area, 0)</t>
+  </si>
+  <si>
+    <t>copyDouble(src_inv_area)</t>
+  </si>
+  <si>
+    <t>Copies source value to SRC_INV_AREA</t>
+  </si>
+  <si>
+    <t>STAND_PHOTO_YEAR</t>
+  </si>
+  <si>
+    <t>false()</t>
+  </si>
+  <si>
+    <t>nothingInt()</t>
+  </si>
+  <si>
+    <t>Attribute does not occur</t>
+  </si>
+  <si>
+    <t>LYR ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>ROW_TRANSLATION_RULE</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>notEmpty({species_1, species_2, species_3, species_4, species_5}, TRUE)</t>
+  </si>
+  <si>
+    <t>Translate only rows where sp1, sp2, sp3, sp4 or sp5 is not empty</t>
+  </si>
+  <si>
+    <t>Concatenates five attributes to create CAS_ID</t>
+  </si>
+  <si>
+    <t>SOIL_MOIST_REG</t>
+  </si>
+  <si>
+    <t>false(|UNKNOWN_VALUE)</t>
+  </si>
+  <si>
+    <t>nothingText()</t>
+  </si>
+  <si>
+    <t>STRUCTURE_PER</t>
+  </si>
+  <si>
+    <t>copyInt(100)</t>
+  </si>
+  <si>
+    <t>No horizontal structure so structure percent is 100</t>
+  </si>
+  <si>
+    <t>LAYER</t>
+  </si>
+  <si>
+    <t>mb_fri01_countOfNotNull({species_1, species_2, species_3, species_4, species_5}, landtype, layer, 'FALSE')</t>
+  </si>
+  <si>
+    <t>LAYER_RANK</t>
+  </si>
+  <si>
+    <t>CROWN_CLOSURE_UPPER</t>
+  </si>
+  <si>
+    <t>notNull(crown_closure_upper);notEmpty(crown_closure_upper|-8888);matchList(crown_closure_upper,{'J','I','H','G','F','E','D','C','B','A'}|-9997)</t>
+  </si>
+  <si>
+    <t>mapInt(crown_closure_upper, {'J','I','H','G','F','E','D','C','B','A'}, {10,20,30,40,50,60,70,80,90,100})</t>
+  </si>
+  <si>
+    <t>Maps source value to CROWN_CLOSURE_UPPER using lists of values.</t>
+  </si>
+  <si>
+    <t>CROWN_CLOSURE_LOWER</t>
+  </si>
+  <si>
+    <t>mapInt(crown_closure_upper, {'J','I','H','G','F','E','D','C','B','A'}, {1,11,21,31,41,51,61,71,81,91})</t>
+  </si>
+  <si>
+    <t>HEIGHT_UPPER</t>
+  </si>
+  <si>
+    <t>notNull(height_upper);isNumeric(height_upper);isBetween(height_upper,'0.1',100)</t>
+  </si>
+  <si>
+    <t>copyDouble(height_upper)</t>
+  </si>
+  <si>
+    <t>Copies source value to HEIGHT_UPPER</t>
+  </si>
+  <si>
+    <t>HEIGHT_LOWER</t>
+  </si>
+  <si>
+    <t>notNull(height_lower);isNumeric(height_lower);isBetween(height_lower,'0.1',100)</t>
+  </si>
+  <si>
+    <t>copyDouble(height_lower)</t>
+  </si>
+  <si>
+    <t>Copies source value to HEIGHT_LOWER</t>
+  </si>
+  <si>
+    <t>PRODUCTIVE_FOR</t>
+  </si>
+  <si>
+    <t>Correct translation has not been determined.</t>
+  </si>
+  <si>
+    <t>SPECIES_1</t>
+  </si>
+  <si>
+    <t>notNull(species_1);notEmpty(species_1);matchTable(species_1, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_1, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>Maps source value to SPECIES_1 using lookup table</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_1</t>
+  </si>
+  <si>
+    <t>notNull(species_per_1);isInt(species_per_1|-9997);isBetween(species_per_1, 1, 10|-9997)</t>
+  </si>
+  <si>
+    <t>mapInt(species_per_1, {1,2,3,4,5,6,7,8,9,10}, {10,20,30,40,50,60,70,80,90,100})</t>
+  </si>
+  <si>
+    <t>Maps source value to SPECIES_PER_1 by multiplying by 10</t>
+  </si>
+  <si>
+    <t>SPECIES_2</t>
+  </si>
+  <si>
+    <t>notNull(species_2);notEmpty(species_2);matchTable(species_2, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_2, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>Maps source value to SPECIES_2 using lookup table. Uses a second column in the lookup table to allow the layer 2 source values to be translated to different target values for species 1 and species 2.</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_2</t>
+  </si>
+  <si>
+    <t>notNull(species_per_2);isInt(species_per_2|-9997);isBetween(species_per_2, 1, 10|-9997)</t>
+  </si>
+  <si>
+    <t>mapInt(species_per_2, {1,2,3,4,5,6,7,8,9,10}, {10,20,30,40,50,60,70,80,90,100})</t>
+  </si>
+  <si>
+    <t>Maps source value to SPECIES_PER_2 by multiplying by 10</t>
+  </si>
+  <si>
+    <t>SPECIES_3</t>
+  </si>
+  <si>
+    <t>notNull(species_3);notEmpty(species_3);matchTable(species_3, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_3, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>Maps source value to SPECIES_3 using lookup table</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_3</t>
+  </si>
+  <si>
+    <t>notNull(species_per_3);isInt(species_per_3|-9997);isBetween(species_per_3, 1, 10|-9997)</t>
+  </si>
+  <si>
+    <t>mapInt(species_per_3, {1,2,3,4,5,6,7,8,9,10}, {10,20,30,40,50,60,70,80,90,100})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps source value to SPECIES_PER_3 by multiplying by 10. </t>
+  </si>
+  <si>
+    <t>SPECIES_4</t>
+  </si>
+  <si>
+    <t>notNull(species_4);notEmpty(species_4);matchTable(species_4, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_4, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>Maps source value to SPECIES_4 using lookup table</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_4</t>
+  </si>
+  <si>
+    <t>notNull(species_per_4);isInt(species_per_4|-9997);isBetween(species_per_4, 1, 10|-9997)</t>
+  </si>
+  <si>
+    <t>mapInt(species_per_4, {1,2,3,4,5,6,7,8,9,10}, {10,20,30,40,50,60,70,80,90,100})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps source value to SPECIES_PER_4 by multiplying by 10. </t>
+  </si>
+  <si>
+    <t>SPECIES_5</t>
+  </si>
+  <si>
+    <t>notNull(species_5);notEmpty(species_5);matchTable(species_5, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_5, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>Maps source value to SPECIES_5 using lookup table</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_5</t>
+  </si>
+  <si>
+    <t>notNull(species_per_5);isInt(species_per_5|-9997);isBetween(species_per_5, 1, 10|-9997)</t>
+  </si>
+  <si>
+    <t>mapInt(species_per_5, {1,2,3,4,5,6,7,8,9,10}, {10,20,30,40,50,60,70,80,90,100})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps source value to SPECIES_PER_5 by multiplying by 10. </t>
+  </si>
+  <si>
+    <t>SPECIES_6</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_6</t>
+  </si>
+  <si>
+    <t>SPECIES_7</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_7</t>
+  </si>
+  <si>
+    <t>SPECIES_8</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_8</t>
+  </si>
+  <si>
+    <t>SPECIES_9</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_9</t>
+  </si>
+  <si>
+    <t>SPECIES_10</t>
+  </si>
+  <si>
+    <t>SPECIES_PER_10</t>
+  </si>
+  <si>
+    <t>ORIGIN_UPPER</t>
+  </si>
+  <si>
+    <t>ORIGIN_LOWER</t>
+  </si>
+  <si>
+    <t>SITE_CLASS</t>
+  </si>
+  <si>
+    <t>SITE_INDEX</t>
+  </si>
+  <si>
+    <t>nothingDouble()</t>
+  </si>
+  <si>
+    <t>NFL ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>matchList(landtype,{'SO','SD','WW','FL','CL','WF','PL','RN','RD','RR','AG','EP','UR','AL','BO'})</t>
+  </si>
+  <si>
+    <t>Translate only rows where landtype has an nfl value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRUE</t>
+  </si>
+  <si>
+    <t>false(|-8887)</t>
+  </si>
+  <si>
+    <t>NAT_NON_VEG</t>
+  </si>
+  <si>
+    <t>notNull(landtype);matchList(landtype,{'SO','SD','WW','FL'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>mapText(landtype, {'SO','SD','WW','FL'}, {'SLIDE','SAND','LAKE','FLOOD'})</t>
+  </si>
+  <si>
+    <t>Maps source value to NAT_NON_VEG using list of values.</t>
+  </si>
+  <si>
+    <t>NON_FOR_ANTH</t>
+  </si>
+  <si>
+    <t>notNull(landtype);matchList(landtype,{'CL','WF','PL','RN','RD','RR','AG','EP','UR'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>mapText(landtype, {'CL','WF','PL','RN','RD','RR','AG','EP','UR'}, {'OTHER','OTHER','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','CULTIVATED','BORROW_PIT','SETTLEMENT'})</t>
+  </si>
+  <si>
+    <t>Maps source value to NON_FOR_ANTH using list of values.</t>
+  </si>
+  <si>
+    <t>NON_FOR_VEG</t>
+  </si>
+  <si>
+    <t>notNull(landtype);matchList(landtype,{'AL','BO'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>mapText(landtype,{'AL','BO'}, {'TALL_SHRUB','OPEN_MUSKEG'})</t>
+  </si>
+  <si>
+    <t>Maps source value to NON_FOR_VEG using list of values.</t>
+  </si>
+  <si>
+    <t>DST ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>notEmpty(dist_type_1)</t>
+  </si>
+  <si>
+    <t>Translate only rows where dist_type1 is not empty</t>
+  </si>
+  <si>
+    <t>DIST_TYPE_1</t>
+  </si>
+  <si>
+    <t>notNull(dist_type_1);notEmpty(dist_type_1);lengthMatchList(dist_type_1, {2,4}, 'TRUE'|INVALID_VALUE);matchListSubstring(dist_type_1, 1, 2, {'BR','CC','DI','EP','FL','HR','OF','PC','PN','RN','SD','ST','SY','TH','SW','UR','WF'})</t>
+  </si>
+  <si>
+    <t>mapSubstringText(dist_type_1, 1, 2,  {'BR','CC','DI','EP','FL','HR','OF','PC','PN','RN','SD','ST','SY','TH','SW','UR','WF'}, {'BURN','CUT','DISEASE','OTHER','FLOOD','OTHER','OTHER','PARTIAL_CUT','SILVICULTURE_TREATMENT','OTHER','OTHER','PARTIAL_CUT','OTHER','SILVICULTURE_TREATMENT','OTHER','OTHER','WINDFALL'})</t>
+  </si>
+  <si>
+    <t>Takes substring of characters 1 and 2. Validates substring and maps to CASFRI disturbance type. Valid strings must have two or four characters.</t>
+  </si>
+  <si>
+    <t>DIST_YEAR_1</t>
+  </si>
+  <si>
+    <t>false(|-8886)</t>
+  </si>
+  <si>
+    <t>Year is unknown</t>
+  </si>
+  <si>
+    <t>DIST_EXT_UPPER_1</t>
+  </si>
+  <si>
+    <t>DIST_EXT_LOWER_1</t>
+  </si>
+  <si>
+    <t>DIST_TYPE_2</t>
+  </si>
+  <si>
+    <t>notNull(dist_type_2);notEmpty(dist_type_2);lengthMatchList(dist_type_2, {3,4}, 'TRUE'|NOT_APPLICABLE);hasLength(dist_type_2, 4|INVAID_VALUE);matchListSubstring(dist_type_2, 3, 2, {'BR','CC','DI','EP','FL','HR','OF','PC','PN','RN','SD','ST','SY','TH','SW','UR','WF'})</t>
+  </si>
+  <si>
+    <t>mapSubstringText(dist_type_2, 3, 2,  {'BR','CC','DI','EP','FL','HR','OF','PC','PN','RN','SD','ST','SY','TH','SW','UR','WF'}, {'BURN','CUT','DISEASE','OTHER','FLOOD','OTHER','OTHER','PARTIAL_CUT','SILVICULTURE_TREATMENT','OTHER','OTHER','PARTIAL_CUT','OTHER','SILVICULTURE_TREATMENT','OTHER','OTHER','WINDFALL'})</t>
+  </si>
+  <si>
+    <t>Takes substring of characters 3 and 4. Validates substring and maps to CASFRI disturbance type. For a second disturbance to be present dist_type_1 must have 4 characters. If one or two characters, return NOT_APPLICABLE because there is no second disturbance. If three characters, return INVALID_VALUE because disturbance code must have length 2.</t>
+  </si>
+  <si>
+    <t>DIST_YEAR_2</t>
+  </si>
+  <si>
+    <t>hasLength(dist_type_2, 4|-8887);false(|-8886)</t>
+  </si>
+  <si>
+    <t>If there is a dist_type_2 to report, year is UNKNOWN_VALUE, if there is no dist_type_2, return NOT_APPLICABLE</t>
+  </si>
+  <si>
+    <t>DIST_EXT_UPPER_2</t>
+  </si>
+  <si>
+    <t>DIST_EXT_LOWER_2</t>
+  </si>
+  <si>
+    <t>DIST_TYPE_3</t>
+  </si>
+  <si>
+    <t>DIST_YEAR_3</t>
+  </si>
+  <si>
+    <t>DIST_EXT_UPPER_3</t>
+  </si>
+  <si>
+    <t>DIST_EXT_LOWER_3</t>
+  </si>
+  <si>
+    <t>nothingInt(|-8886)</t>
+  </si>
+  <si>
+    <t>Disturbance layer is unknown</t>
+  </si>
+  <si>
+    <t>ECO ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>No row to translate</t>
+  </si>
+  <si>
+    <t>WETLAND_TYPE</t>
+  </si>
+  <si>
+    <t>WET_VEG_COVER</t>
+  </si>
+  <si>
+    <t>WET_LANDFORM_MOD</t>
+  </si>
+  <si>
+    <t>WET_LOCAL_MOD</t>
+  </si>
+  <si>
+    <t>ECO_SITE</t>
+  </si>
+  <si>
+    <t>GEO ATTRIBUTES</t>
+  </si>
+  <si>
+    <t>GEOMETRY</t>
+  </si>
+  <si>
+    <t>geoIsValid(wkb_geometry, TRUE|POLYGON EMPTY)</t>
+  </si>
+  <si>
+    <t>geoMakeValidMultiPolygon(wkb_geometry)</t>
+  </si>
+  <si>
+    <t>Returns the geometry and validates if necessary. If valid geometry cannot be made error code is returned.</t>
+  </si>
+  <si>
+    <t>mb_fli01_countOfNotNull({species_1, species_2, species_3, species_4, species_5}, landtype, 2, 'FALSE')</t>
+  </si>
+  <si>
+    <t>mb_fli01_countOfNotNull({species_1, species_2, species_3, species_4, species_5}, landtype, layer, 'FALSE')</t>
+  </si>
+  <si>
+    <t>mu_id</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>crowncl</t>
+  </si>
+  <si>
+    <t>sp1per</t>
+  </si>
+  <si>
+    <t>sp5per</t>
+  </si>
+  <si>
+    <t>sp6</t>
+  </si>
+  <si>
+    <t>sp6per</t>
+  </si>
+  <si>
+    <t>us2sp1</t>
+  </si>
+  <si>
+    <t>us2sp1per</t>
+  </si>
+  <si>
+    <t>us2sp2</t>
+  </si>
+  <si>
+    <t>us2sp3</t>
+  </si>
+  <si>
+    <t>us2sp4</t>
+  </si>
+  <si>
+    <t>us3sp1</t>
+  </si>
+  <si>
+    <t>us3sp1per</t>
+  </si>
+  <si>
+    <t>us3sp2</t>
+  </si>
+  <si>
+    <t>us4sp1</t>
+  </si>
+  <si>
+    <t>us5sp1</t>
+  </si>
+  <si>
+    <t>us4sp1per</t>
+  </si>
+  <si>
+    <t>us5sp1per</t>
+  </si>
+  <si>
+    <t>us4sp2</t>
+  </si>
+  <si>
+    <t>us5sp2</t>
+  </si>
+  <si>
+    <t>us2sp2per</t>
+  </si>
+  <si>
+    <t>us3sp2per</t>
+  </si>
+  <si>
+    <t>us4sp2per</t>
+  </si>
+  <si>
+    <t>us5sp2per</t>
+  </si>
+  <si>
+    <t>us3sp3</t>
+  </si>
+  <si>
+    <t>us4sp3</t>
+  </si>
+  <si>
+    <t>us5sp3</t>
+  </si>
+  <si>
+    <t>us2sp3per</t>
+  </si>
+  <si>
+    <t>us3sp3per</t>
+  </si>
+  <si>
+    <t>us4sp3per</t>
+  </si>
+  <si>
+    <t>us5sp3per</t>
+  </si>
+  <si>
+    <t>us3sp4</t>
+  </si>
+  <si>
+    <t>us4sp4</t>
+  </si>
+  <si>
+    <t>us5sp4</t>
+  </si>
+  <si>
+    <t>us2sp4per</t>
+  </si>
+  <si>
+    <t>us3sp4per</t>
+  </si>
+  <si>
+    <t>us4sp4per</t>
+  </si>
+  <si>
+    <t>us5sp4per</t>
+  </si>
+  <si>
+    <t>us2sp5</t>
+  </si>
+  <si>
+    <t>us3sp5</t>
+  </si>
+  <si>
+    <t>us4sp5</t>
+  </si>
+  <si>
+    <t>us5sp5</t>
+  </si>
+  <si>
+    <t>us2sp5per</t>
+  </si>
+  <si>
+    <t>us3sp5per</t>
+  </si>
+  <si>
+    <t>us4sp5per</t>
+  </si>
+  <si>
+    <t>us5sp5per</t>
+  </si>
+  <si>
+    <t>us2sp6</t>
+  </si>
+  <si>
+    <t>us3sp6</t>
+  </si>
+  <si>
+    <t>us4sp6</t>
+  </si>
+  <si>
+    <t>us5sp6</t>
+  </si>
+  <si>
+    <t>us2sp6per</t>
+  </si>
+  <si>
+    <t>us3sp6per</t>
+  </si>
+  <si>
+    <t>us4sp6per</t>
+  </si>
+  <si>
+    <t>us5sp6per</t>
+  </si>
+  <si>
+    <t>year_org</t>
+  </si>
+  <si>
+    <t>orig1</t>
+  </si>
+  <si>
+    <t>orig2</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>nnf_anth</t>
+  </si>
+  <si>
+    <t>us2cc</t>
+  </si>
+  <si>
+    <t>us2ht</t>
+  </si>
+  <si>
+    <t>us3cc</t>
+  </si>
+  <si>
+    <t>us4cc</t>
+  </si>
+  <si>
+    <t>us5cc</t>
+  </si>
+  <si>
+    <t>us3ht</t>
+  </si>
+  <si>
+    <t>us4ht</t>
+  </si>
+  <si>
+    <t>us5ht</t>
+  </si>
+  <si>
+    <t>us2origin</t>
+  </si>
+  <si>
+    <t>us3origin</t>
+  </si>
+  <si>
+    <t>us4origin</t>
+  </si>
+  <si>
+    <t>us5origin</t>
+  </si>
+  <si>
+    <t>notNull(nnf_anth);matchList(nnf_anth,{'NMB','NMC','NMF','NMR','NMS','NMM','NMG','NWL','NWR','NWF'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>mapText(landtype, {'CIP','CIW','CIU','ASC','ASR','ASP','ASN','AIH','AIR','AIG','AII','AIW','AIA','AIF','AIU'}, {})</t>
+  </si>
+  <si>
+    <t>mapText(landtype, {'NMB','NMC','NMF','NMR','NMS','NMM','NMG','NWL','NWR','NWF'}, {})</t>
+  </si>
+  <si>
+    <t>mapText(landtype,{'SO','AL','SC','CC','HG','CS','HF','AS','HU','VI','BR','RA','CL','DL','AU'}, {})</t>
+  </si>
+  <si>
+    <t>notNull(nnf_anth);matchList(nnf_anth,{'SO','AL','SC','CC','HG','CS','HF','AS','HU','VI','BR','RA','CL','DL','AU'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>notNull(nnf_anth);matchList(nnf_anth,{'CIP','CIW','CIU','ASC','ASR','ASP','ASN','AIH','AIR','AIG','AII','AIW','AIA','AIF','AIU'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>matchList(nnf_anth,{'NMB','NMC','NMF','NMR','NMS','NMM','NMG','NWL','NWR','NWF','CIP','CIW','CIU','ASC','ASR','ASP','ASN','AIH','AIR','AIG','AII','AIW','AIA','AIF','AIU','SO','AL','SC','CC','HG','CS','HF','AS','HU','VI','BR','RA','CL','DL','AU'})</t>
+  </si>
+  <si>
+    <t>notNull(dist_year_1);isInt(dist_year_1);isBetween(dist_year_1,1,2020)</t>
+  </si>
+  <si>
+    <t>copyInt(dist_year_1)</t>
+  </si>
+  <si>
+    <t>notNull(dist_ext_upper_1);notEmpty(dist_ext_upper_1|-8888);isInt(dist_ext_upper_1);isBetween(dist_ext_upper_1,1,5)</t>
+  </si>
+  <si>
+    <t>mapInt(dist_ext_upper_1, {1,2,3,4,5}, {25,50,75,95,100})</t>
+  </si>
+  <si>
+    <t>Maps source attribute to upper extent. Validation catches Nulls, them empty strings which should be treated as Nulls for source integers. Then checks the source value is an integer between 1 and 5.</t>
+  </si>
+  <si>
+    <t>notNull(dist_ext_lower_1);notEmpty(dist_ext_lower_1|-8888);isInt(dist_ext_lower_1);isBetween(dist_ext_lower_1,1,5)</t>
+  </si>
+  <si>
+    <t>mapInt(dist_ext_lower_1, {1,2,3,4,5}, {1,26,51,76,96})</t>
+  </si>
+  <si>
+    <t>Maps source value to DIST_TYPE_2 using lists of values</t>
+  </si>
+  <si>
+    <t>notNull(dist_year_2);isInt(dist_year_2);isBetween(dist_year_2,1,2020)</t>
+  </si>
+  <si>
+    <t>copyInt(dist_year_2)</t>
+  </si>
+  <si>
+    <t>notNull(dist_ext_upper_2);notEmpty(dist_ext_upper_2|-8888);isInt(dist_ext_upper_2);isBetween(dist_ext_upper_2,1,5)</t>
+  </si>
+  <si>
+    <t>mapInt(dist_ext_upper_2, {1,2,3,4,5}, {25,50,75,95,100})</t>
+  </si>
+  <si>
+    <t>Maps source attribute to upper extent</t>
+  </si>
+  <si>
+    <t>notNull(dist_ext_lower_2);notEmpty(dist_ext_lower_2|-8888);isInt(dist_ext_lower_2);isBetween(dist_ext_lower_2,1,5)</t>
+  </si>
+  <si>
+    <t>mapInt(dist_ext_lower_2, {1,2,3,4,5}, {1,26,51,76,96})</t>
+  </si>
+  <si>
+    <t>Maps source attribute to lower extent</t>
+  </si>
+  <si>
+    <t>notNull(dist_type_1);notEmpty(dist_type_1);matchList(dist_type_1,{'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'})</t>
+  </si>
+  <si>
+    <t>mapText(dist_type_1, {'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'}, {})</t>
+  </si>
+  <si>
+    <t>mapText(dist_type_2, {'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'}, {})</t>
+  </si>
+  <si>
+    <t>notNull(dist_type_2);notEmpty(dist_type_2);matchList(dist_type_2,{'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'})</t>
+  </si>
+  <si>
+    <t>Maps source value to DIST_TYPE_1 using lists of values.</t>
+  </si>
+  <si>
+    <t>Copies mod1_yr to DIST_YEAR_1.</t>
+  </si>
+  <si>
+    <t>Copies mod1_yr to DIST_YEAR_2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2114,8 +3001,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2301,8 +3195,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2417,6 +3317,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2462,10 +3371,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2513,6 +3431,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2821,21 +3744,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR102"/>
+  <dimension ref="A1:BR98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="A89:F102"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="56.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -3187,7 +4110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -3315,7 +4238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -3392,7 +4315,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -3433,7 +4356,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -3474,7 +4397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -3602,7 +4525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -3679,7 +4602,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -3720,7 +4643,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -3761,7 +4684,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -3877,7 +4800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -3987,7 +4910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>194</v>
       </c>
@@ -4061,7 +4984,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>194</v>
       </c>
@@ -4090,7 +5013,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -4200,7 +5123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>230</v>
       </c>
@@ -4268,7 +5191,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -4297,7 +5220,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -4425,7 +5348,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -4544,7 +5467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -4576,7 +5499,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -4608,7 +5531,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>249</v>
       </c>
@@ -4640,7 +5563,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>284</v>
       </c>
@@ -4759,7 +5682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>284</v>
       </c>
@@ -4848,7 +5771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>284</v>
       </c>
@@ -4880,7 +5803,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -4912,7 +5835,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>284</v>
       </c>
@@ -4944,7 +5867,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>325</v>
       </c>
@@ -5063,7 +5986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -5173,7 +6096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>331</v>
       </c>
@@ -5247,7 +6170,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>331</v>
       </c>
@@ -5288,7 +6211,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -5329,7 +6252,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>364</v>
       </c>
@@ -5439,7 +6362,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -5525,7 +6448,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>364</v>
       </c>
@@ -5566,7 +6489,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>364</v>
       </c>
@@ -5607,7 +6530,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>372</v>
       </c>
@@ -5696,7 +6619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>385</v>
       </c>
@@ -5785,7 +6708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>385</v>
       </c>
@@ -5841,7 +6764,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>390</v>
       </c>
@@ -5984,7 +6907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>395</v>
       </c>
@@ -6121,7 +7044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>395</v>
       </c>
@@ -6231,7 +7154,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>395</v>
       </c>
@@ -6260,7 +7183,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>415</v>
       </c>
@@ -6361,7 +7284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -6456,7 +7379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>420</v>
       </c>
@@ -6485,7 +7408,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>431</v>
       </c>
@@ -6595,7 +7518,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>436</v>
       </c>
@@ -6699,7 +7622,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>436</v>
       </c>
@@ -6773,7 +7696,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>436</v>
       </c>
@@ -6805,7 +7728,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>453</v>
       </c>
@@ -6957,7 +7880,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>460</v>
       </c>
@@ -7097,7 +8020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>460</v>
       </c>
@@ -7174,7 +8097,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>460</v>
       </c>
@@ -7251,7 +8174,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>460</v>
       </c>
@@ -7289,7 +8212,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>460</v>
       </c>
@@ -7327,7 +8250,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>460</v>
       </c>
@@ -7365,7 +8288,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>527</v>
       </c>
@@ -7505,7 +8428,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>527</v>
       </c>
@@ -7582,7 +8505,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="60" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>527</v>
       </c>
@@ -7659,7 +8582,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="61" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>527</v>
       </c>
@@ -7697,7 +8620,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>527</v>
       </c>
@@ -7735,7 +8658,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="63" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>527</v>
       </c>
@@ -7773,7 +8696,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>528</v>
       </c>
@@ -7913,7 +8836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>528</v>
       </c>
@@ -7990,7 +8913,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="66" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>528</v>
       </c>
@@ -8067,7 +8990,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>528</v>
       </c>
@@ -8105,7 +9028,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="68" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>528</v>
       </c>
@@ -8143,7 +9066,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="69" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>528</v>
       </c>
@@ -8181,7 +9104,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="70" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>532</v>
       </c>
@@ -8321,7 +9244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>532</v>
       </c>
@@ -8398,7 +9321,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="72" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>532</v>
       </c>
@@ -8475,7 +9398,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="73" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>532</v>
       </c>
@@ -8513,7 +9436,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="74" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>532</v>
       </c>
@@ -8551,7 +9474,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="75" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>532</v>
       </c>
@@ -8589,7 +9512,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>533</v>
       </c>
@@ -8729,7 +9652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>533</v>
       </c>
@@ -8809,7 +9732,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>533</v>
       </c>
@@ -8889,7 +9812,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="79" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>533</v>
       </c>
@@ -8930,7 +9853,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="80" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>533</v>
       </c>
@@ -8971,7 +9894,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="81" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>533</v>
       </c>
@@ -9012,7 +9935,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="82" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>601</v>
       </c>
@@ -9125,7 +10048,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>608</v>
       </c>
@@ -9226,7 +10149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>608</v>
       </c>
@@ -9291,7 +10214,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="85" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>608</v>
       </c>
@@ -9326,7 +10249,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="86" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>624</v>
       </c>
@@ -9424,7 +10347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>627</v>
       </c>
@@ -9516,305 +10439,5015 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:70" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="7">
         <v>2</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O88" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AU88" t="s">
+      <c r="AU88" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="AV88" t="s">
+      <c r="AV88" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="AW88" t="s">
+      <c r="AW88" s="7" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="89" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="O89" t="s">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="L89" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O89" s="3" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="90" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="P89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD89" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF89" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ89" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ89" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="4" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="91" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="W90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X90" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="Y90" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z90" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB90" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC90" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD90" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF90" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="AG90" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="AH90" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="AQ90" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="AR90" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="AS90" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="BQ90" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:70" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="10">
+        <v>3</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="P91" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B92" s="5">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="L92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U92" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X92" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB92" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC92" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD92" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF92" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG92" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU92" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="AV92" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="AW92" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="AZ92" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD92" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE92" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ92" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="U93" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="X93" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="Y93" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z93" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA93" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB93" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC93" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD93" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE93" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF93" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="AG93" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="AH93" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="AQ93" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR93" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ93" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA93" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="BB93" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="BC93" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="BD93" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE93" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="BF93" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="BG93" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="BQ93" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B94" s="5">
         <v>2</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C94" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D94" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E94" s="5" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="92" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>645</v>
-      </c>
-      <c r="B92">
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="P94" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="X94" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="Y94" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="Z94" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="AA94" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="AB94" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC94" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD94" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE94" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="AF94" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="AG94" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="AH94" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="AQ94" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="AR94" s="5" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="95" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B95" s="5">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C95" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D95" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E95" s="5" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="93" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>645</v>
-      </c>
-      <c r="B93">
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="P95" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="U95" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="W95" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="X95" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="Y95" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="Z95" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="AA95" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="AB95" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC95" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="AD95" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="AE95" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="AF95" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="AG95" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="AH95" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="AQ95" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="AR95" s="5" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B96" s="5">
         <v>4</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C96" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D96" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E96" s="5" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="94" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>645</v>
-      </c>
-      <c r="B94">
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="P96" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="W96" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="X96" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z96" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA96" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="AB96" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="AC96" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="AD96" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="AE96" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF96" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="AG96" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="AH96" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="AQ96" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="AR96" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="97" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B97" s="5">
         <v>5</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C97" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D97" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E97" s="5" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="95" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>645</v>
-      </c>
-      <c r="B95">
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="P97" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="S97" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="T97" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="U97" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="W97" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="X97" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y97" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="Z97" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="AA97" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="AB97" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC97" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="AD97" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="AE97" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="AF97" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="AG97" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="AH97" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="AQ97" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="AR97" s="5" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="98" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B98" s="8">
         <v>3</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C98" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D98" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E98" s="8" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="96" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>644</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" t="s">
-        <v>72</v>
-      </c>
-      <c r="F96" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" t="s">
-        <v>238</v>
-      </c>
-      <c r="O96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>646</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" t="s">
-        <v>87</v>
-      </c>
-      <c r="E97" t="s">
-        <v>649</v>
-      </c>
-      <c r="F97" t="s">
-        <v>196</v>
-      </c>
-      <c r="G97" t="s">
-        <v>648</v>
-      </c>
-      <c r="O97" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>646</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>86</v>
-      </c>
-      <c r="D98" t="s">
-        <v>87</v>
-      </c>
-      <c r="E98" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>646</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>86</v>
-      </c>
-      <c r="D99" t="s">
-        <v>87</v>
-      </c>
-      <c r="E99" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>646</v>
-      </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s">
-        <v>86</v>
-      </c>
-      <c r="D100" t="s">
-        <v>87</v>
-      </c>
-      <c r="E100" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>646</v>
-      </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>86</v>
-      </c>
-      <c r="D101" t="s">
-        <v>87</v>
-      </c>
-      <c r="E101" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>646</v>
-      </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>132</v>
-      </c>
-      <c r="D102" t="s">
-        <v>87</v>
-      </c>
-      <c r="E102" t="s">
-        <v>649</v>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="P98" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="AU98" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="AV98" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="AW98" s="8" t="s">
+        <v>903</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE4173C-626E-4EDB-B463-AE921F199E3F}">
+  <dimension ref="A1:G99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="208" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="247" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F4" t="s">
+        <v>667</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" t="s">
+        <v>677</v>
+      </c>
+      <c r="D7" t="s">
+        <v>678</v>
+      </c>
+      <c r="E7" t="s">
+        <v>679</v>
+      </c>
+      <c r="F7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" t="s">
+        <v>682</v>
+      </c>
+      <c r="E8" t="s">
+        <v>683</v>
+      </c>
+      <c r="F8" t="s">
+        <v>667</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" t="s">
+        <v>686</v>
+      </c>
+      <c r="E9" t="s">
+        <v>687</v>
+      </c>
+      <c r="F9" t="s">
+        <v>688</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D10" t="s">
+        <v>686</v>
+      </c>
+      <c r="E10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F10" t="s">
+        <v>691</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C11" t="s">
+        <v>685</v>
+      </c>
+      <c r="D11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E11" t="s">
+        <v>694</v>
+      </c>
+      <c r="F11" t="s">
+        <v>695</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>696</v>
+      </c>
+      <c r="C12" t="s">
+        <v>677</v>
+      </c>
+      <c r="D12" t="s">
+        <v>697</v>
+      </c>
+      <c r="E12" t="s">
+        <v>698</v>
+      </c>
+      <c r="F12" t="s">
+        <v>699</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>652</v>
+      </c>
+      <c r="B15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C15" t="s">
+        <v>654</v>
+      </c>
+      <c r="D15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E15" t="s">
+        <v>656</v>
+      </c>
+      <c r="F15" t="s">
+        <v>657</v>
+      </c>
+      <c r="G15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>701</v>
+      </c>
+      <c r="C16" t="s">
+        <v>702</v>
+      </c>
+      <c r="D16" t="s">
+        <v>703</v>
+      </c>
+      <c r="E16" t="s">
+        <v>702</v>
+      </c>
+      <c r="F16" t="s">
+        <v>704</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>659</v>
+      </c>
+      <c r="C17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D17" t="s">
+        <v>661</v>
+      </c>
+      <c r="E17" t="s">
+        <v>662</v>
+      </c>
+      <c r="F17" t="s">
+        <v>705</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>706</v>
+      </c>
+      <c r="C18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D18" t="s">
+        <v>707</v>
+      </c>
+      <c r="E18" t="s">
+        <v>708</v>
+      </c>
+      <c r="F18" t="s">
+        <v>699</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>709</v>
+      </c>
+      <c r="C19" t="s">
+        <v>677</v>
+      </c>
+      <c r="D19" t="s">
+        <v>678</v>
+      </c>
+      <c r="E19" t="s">
+        <v>710</v>
+      </c>
+      <c r="F19" t="s">
+        <v>711</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C20" t="s">
+        <v>677</v>
+      </c>
+      <c r="D20" t="s">
+        <v>678</v>
+      </c>
+      <c r="E20" t="s">
+        <v>713</v>
+      </c>
+      <c r="F20" t="s">
+        <v>680</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>714</v>
+      </c>
+      <c r="C21" t="s">
+        <v>677</v>
+      </c>
+      <c r="D21" t="s">
+        <v>697</v>
+      </c>
+      <c r="E21" t="s">
+        <v>698</v>
+      </c>
+      <c r="F21" t="s">
+        <v>699</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>715</v>
+      </c>
+      <c r="C22" t="s">
+        <v>677</v>
+      </c>
+      <c r="D22" t="s">
+        <v>716</v>
+      </c>
+      <c r="E22" t="s">
+        <v>717</v>
+      </c>
+      <c r="F22" t="s">
+        <v>718</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>719</v>
+      </c>
+      <c r="C23" t="s">
+        <v>677</v>
+      </c>
+      <c r="D23" t="s">
+        <v>716</v>
+      </c>
+      <c r="E23" t="s">
+        <v>720</v>
+      </c>
+      <c r="F23" t="s">
+        <v>718</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>721</v>
+      </c>
+      <c r="C24" t="s">
+        <v>685</v>
+      </c>
+      <c r="D24" t="s">
+        <v>722</v>
+      </c>
+      <c r="E24" t="s">
+        <v>723</v>
+      </c>
+      <c r="F24" t="s">
+        <v>724</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>725</v>
+      </c>
+      <c r="C25" t="s">
+        <v>685</v>
+      </c>
+      <c r="D25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E25" t="s">
+        <v>727</v>
+      </c>
+      <c r="F25" t="s">
+        <v>728</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>729</v>
+      </c>
+      <c r="C26" t="s">
+        <v>660</v>
+      </c>
+      <c r="D26" t="s">
+        <v>697</v>
+      </c>
+      <c r="E26" t="s">
+        <v>708</v>
+      </c>
+      <c r="F26" t="s">
+        <v>730</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>731</v>
+      </c>
+      <c r="C27" t="s">
+        <v>660</v>
+      </c>
+      <c r="D27" t="s">
+        <v>732</v>
+      </c>
+      <c r="E27" t="s">
+        <v>733</v>
+      </c>
+      <c r="F27" t="s">
+        <v>734</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" t="s">
+        <v>677</v>
+      </c>
+      <c r="D28" t="s">
+        <v>736</v>
+      </c>
+      <c r="E28" t="s">
+        <v>737</v>
+      </c>
+      <c r="F28" t="s">
+        <v>738</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>739</v>
+      </c>
+      <c r="C29" t="s">
+        <v>660</v>
+      </c>
+      <c r="D29" t="s">
+        <v>740</v>
+      </c>
+      <c r="E29" t="s">
+        <v>741</v>
+      </c>
+      <c r="F29" t="s">
+        <v>742</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>743</v>
+      </c>
+      <c r="C30" t="s">
+        <v>677</v>
+      </c>
+      <c r="D30" t="s">
+        <v>744</v>
+      </c>
+      <c r="E30" t="s">
+        <v>745</v>
+      </c>
+      <c r="F30" t="s">
+        <v>746</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>747</v>
+      </c>
+      <c r="C31" t="s">
+        <v>660</v>
+      </c>
+      <c r="D31" t="s">
+        <v>748</v>
+      </c>
+      <c r="E31" t="s">
+        <v>749</v>
+      </c>
+      <c r="F31" t="s">
+        <v>750</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>751</v>
+      </c>
+      <c r="C32" t="s">
+        <v>677</v>
+      </c>
+      <c r="D32" t="s">
+        <v>752</v>
+      </c>
+      <c r="E32" t="s">
+        <v>753</v>
+      </c>
+      <c r="F32" t="s">
+        <v>754</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>755</v>
+      </c>
+      <c r="C33" t="s">
+        <v>660</v>
+      </c>
+      <c r="D33" t="s">
+        <v>756</v>
+      </c>
+      <c r="E33" t="s">
+        <v>757</v>
+      </c>
+      <c r="F33" t="s">
+        <v>758</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C34" t="s">
+        <v>677</v>
+      </c>
+      <c r="D34" t="s">
+        <v>760</v>
+      </c>
+      <c r="E34" t="s">
+        <v>761</v>
+      </c>
+      <c r="F34" t="s">
+        <v>762</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>763</v>
+      </c>
+      <c r="C35" t="s">
+        <v>660</v>
+      </c>
+      <c r="D35" t="s">
+        <v>764</v>
+      </c>
+      <c r="E35" t="s">
+        <v>765</v>
+      </c>
+      <c r="F35" t="s">
+        <v>766</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>767</v>
+      </c>
+      <c r="C36" t="s">
+        <v>677</v>
+      </c>
+      <c r="D36" t="s">
+        <v>768</v>
+      </c>
+      <c r="E36" t="s">
+        <v>769</v>
+      </c>
+      <c r="F36" t="s">
+        <v>770</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>771</v>
+      </c>
+      <c r="C37" t="s">
+        <v>660</v>
+      </c>
+      <c r="D37" t="s">
+        <v>697</v>
+      </c>
+      <c r="E37" t="s">
+        <v>708</v>
+      </c>
+      <c r="F37" t="s">
+        <v>699</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>772</v>
+      </c>
+      <c r="C38" t="s">
+        <v>677</v>
+      </c>
+      <c r="D38" t="s">
+        <v>697</v>
+      </c>
+      <c r="E38" t="s">
+        <v>698</v>
+      </c>
+      <c r="F38" t="s">
+        <v>699</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>773</v>
+      </c>
+      <c r="C39" t="s">
+        <v>660</v>
+      </c>
+      <c r="D39" t="s">
+        <v>697</v>
+      </c>
+      <c r="E39" t="s">
+        <v>708</v>
+      </c>
+      <c r="F39" t="s">
+        <v>699</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>774</v>
+      </c>
+      <c r="C40" t="s">
+        <v>677</v>
+      </c>
+      <c r="D40" t="s">
+        <v>697</v>
+      </c>
+      <c r="E40" t="s">
+        <v>698</v>
+      </c>
+      <c r="F40" t="s">
+        <v>699</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>775</v>
+      </c>
+      <c r="C41" t="s">
+        <v>660</v>
+      </c>
+      <c r="D41" t="s">
+        <v>697</v>
+      </c>
+      <c r="E41" t="s">
+        <v>708</v>
+      </c>
+      <c r="F41" t="s">
+        <v>699</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>776</v>
+      </c>
+      <c r="C42" t="s">
+        <v>677</v>
+      </c>
+      <c r="D42" t="s">
+        <v>697</v>
+      </c>
+      <c r="E42" t="s">
+        <v>698</v>
+      </c>
+      <c r="F42" t="s">
+        <v>699</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>777</v>
+      </c>
+      <c r="C43" t="s">
+        <v>660</v>
+      </c>
+      <c r="D43" t="s">
+        <v>697</v>
+      </c>
+      <c r="E43" t="s">
+        <v>708</v>
+      </c>
+      <c r="F43" t="s">
+        <v>699</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>778</v>
+      </c>
+      <c r="C44" t="s">
+        <v>677</v>
+      </c>
+      <c r="D44" t="s">
+        <v>697</v>
+      </c>
+      <c r="E44" t="s">
+        <v>698</v>
+      </c>
+      <c r="F44" t="s">
+        <v>699</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>779</v>
+      </c>
+      <c r="C45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D45" t="s">
+        <v>697</v>
+      </c>
+      <c r="E45" t="s">
+        <v>708</v>
+      </c>
+      <c r="F45" t="s">
+        <v>699</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>780</v>
+      </c>
+      <c r="C46" t="s">
+        <v>677</v>
+      </c>
+      <c r="D46" t="s">
+        <v>697</v>
+      </c>
+      <c r="E46" t="s">
+        <v>698</v>
+      </c>
+      <c r="F46" t="s">
+        <v>699</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>781</v>
+      </c>
+      <c r="C47" t="s">
+        <v>677</v>
+      </c>
+      <c r="D47" t="s">
+        <v>697</v>
+      </c>
+      <c r="E47" t="s">
+        <v>698</v>
+      </c>
+      <c r="F47" t="s">
+        <v>699</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>782</v>
+      </c>
+      <c r="C48" t="s">
+        <v>677</v>
+      </c>
+      <c r="D48" t="s">
+        <v>697</v>
+      </c>
+      <c r="E48" t="s">
+        <v>698</v>
+      </c>
+      <c r="F48" t="s">
+        <v>699</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>783</v>
+      </c>
+      <c r="C49" t="s">
+        <v>660</v>
+      </c>
+      <c r="D49" t="s">
+        <v>697</v>
+      </c>
+      <c r="E49" t="s">
+        <v>708</v>
+      </c>
+      <c r="F49" t="s">
+        <v>699</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>784</v>
+      </c>
+      <c r="C50" t="s">
+        <v>685</v>
+      </c>
+      <c r="D50" t="s">
+        <v>697</v>
+      </c>
+      <c r="E50" t="s">
+        <v>785</v>
+      </c>
+      <c r="F50" t="s">
+        <v>699</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>652</v>
+      </c>
+      <c r="B53" t="s">
+        <v>653</v>
+      </c>
+      <c r="C53" t="s">
+        <v>654</v>
+      </c>
+      <c r="D53" t="s">
+        <v>655</v>
+      </c>
+      <c r="E53" t="s">
+        <v>656</v>
+      </c>
+      <c r="F53" t="s">
+        <v>657</v>
+      </c>
+      <c r="G53" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>701</v>
+      </c>
+      <c r="C54" t="s">
+        <v>702</v>
+      </c>
+      <c r="D54" t="s">
+        <v>787</v>
+      </c>
+      <c r="E54" t="s">
+        <v>702</v>
+      </c>
+      <c r="F54" t="s">
+        <v>788</v>
+      </c>
+      <c r="G54" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>659</v>
+      </c>
+      <c r="C55" t="s">
+        <v>660</v>
+      </c>
+      <c r="D55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E55" t="s">
+        <v>662</v>
+      </c>
+      <c r="F55" t="s">
+        <v>705</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>706</v>
+      </c>
+      <c r="C56" t="s">
+        <v>660</v>
+      </c>
+      <c r="D56" t="s">
+        <v>707</v>
+      </c>
+      <c r="E56" t="s">
+        <v>708</v>
+      </c>
+      <c r="F56" t="s">
+        <v>699</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>709</v>
+      </c>
+      <c r="C57" t="s">
+        <v>677</v>
+      </c>
+      <c r="D57" t="s">
+        <v>678</v>
+      </c>
+      <c r="E57" t="s">
+        <v>710</v>
+      </c>
+      <c r="F57" t="s">
+        <v>711</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C58" t="s">
+        <v>677</v>
+      </c>
+      <c r="D58" t="s">
+        <v>678</v>
+      </c>
+      <c r="E58" t="s">
+        <v>713</v>
+      </c>
+      <c r="F58" t="s">
+        <v>680</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>714</v>
+      </c>
+      <c r="C59" t="s">
+        <v>677</v>
+      </c>
+      <c r="D59" t="s">
+        <v>790</v>
+      </c>
+      <c r="E59" t="s">
+        <v>698</v>
+      </c>
+      <c r="F59" t="s">
+        <v>699</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>715</v>
+      </c>
+      <c r="C60" t="s">
+        <v>677</v>
+      </c>
+      <c r="D60" t="s">
+        <v>697</v>
+      </c>
+      <c r="E60" t="s">
+        <v>698</v>
+      </c>
+      <c r="F60" t="s">
+        <v>699</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>719</v>
+      </c>
+      <c r="C61" t="s">
+        <v>677</v>
+      </c>
+      <c r="D61" t="s">
+        <v>697</v>
+      </c>
+      <c r="E61" t="s">
+        <v>698</v>
+      </c>
+      <c r="F61" t="s">
+        <v>699</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>721</v>
+      </c>
+      <c r="C62" t="s">
+        <v>685</v>
+      </c>
+      <c r="D62" t="s">
+        <v>697</v>
+      </c>
+      <c r="E62" t="s">
+        <v>785</v>
+      </c>
+      <c r="F62" t="s">
+        <v>699</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>725</v>
+      </c>
+      <c r="C63" t="s">
+        <v>685</v>
+      </c>
+      <c r="D63" t="s">
+        <v>697</v>
+      </c>
+      <c r="E63" t="s">
+        <v>785</v>
+      </c>
+      <c r="F63" t="s">
+        <v>699</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>791</v>
+      </c>
+      <c r="C64" t="s">
+        <v>660</v>
+      </c>
+      <c r="D64" t="s">
+        <v>792</v>
+      </c>
+      <c r="E64" t="s">
+        <v>793</v>
+      </c>
+      <c r="F64" t="s">
+        <v>794</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>795</v>
+      </c>
+      <c r="C65" t="s">
+        <v>660</v>
+      </c>
+      <c r="D65" t="s">
+        <v>796</v>
+      </c>
+      <c r="E65" t="s">
+        <v>797</v>
+      </c>
+      <c r="F65" t="s">
+        <v>798</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>799</v>
+      </c>
+      <c r="C66" t="s">
+        <v>660</v>
+      </c>
+      <c r="D66" t="s">
+        <v>800</v>
+      </c>
+      <c r="E66" t="s">
+        <v>801</v>
+      </c>
+      <c r="F66" t="s">
+        <v>802</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>652</v>
+      </c>
+      <c r="B69" t="s">
+        <v>653</v>
+      </c>
+      <c r="C69" t="s">
+        <v>654</v>
+      </c>
+      <c r="D69" t="s">
+        <v>655</v>
+      </c>
+      <c r="E69" t="s">
+        <v>656</v>
+      </c>
+      <c r="F69" t="s">
+        <v>657</v>
+      </c>
+      <c r="G69" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>701</v>
+      </c>
+      <c r="C70" t="s">
+        <v>702</v>
+      </c>
+      <c r="D70" t="s">
+        <v>804</v>
+      </c>
+      <c r="E70" t="s">
+        <v>702</v>
+      </c>
+      <c r="F70" t="s">
+        <v>805</v>
+      </c>
+      <c r="G70" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>659</v>
+      </c>
+      <c r="C71" t="s">
+        <v>660</v>
+      </c>
+      <c r="D71" t="s">
+        <v>661</v>
+      </c>
+      <c r="E71" t="s">
+        <v>662</v>
+      </c>
+      <c r="F71" t="s">
+        <v>705</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>806</v>
+      </c>
+      <c r="C72" t="s">
+        <v>660</v>
+      </c>
+      <c r="D72" t="s">
+        <v>807</v>
+      </c>
+      <c r="E72" t="s">
+        <v>808</v>
+      </c>
+      <c r="F72" t="s">
+        <v>809</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>810</v>
+      </c>
+      <c r="C73" t="s">
+        <v>677</v>
+      </c>
+      <c r="D73" t="s">
+        <v>811</v>
+      </c>
+      <c r="E73" t="s">
+        <v>698</v>
+      </c>
+      <c r="F73" t="s">
+        <v>812</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>813</v>
+      </c>
+      <c r="C74" t="s">
+        <v>677</v>
+      </c>
+      <c r="D74" t="s">
+        <v>697</v>
+      </c>
+      <c r="E74" t="s">
+        <v>698</v>
+      </c>
+      <c r="F74" t="s">
+        <v>699</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>814</v>
+      </c>
+      <c r="C75" t="s">
+        <v>677</v>
+      </c>
+      <c r="D75" t="s">
+        <v>697</v>
+      </c>
+      <c r="E75" t="s">
+        <v>698</v>
+      </c>
+      <c r="F75" t="s">
+        <v>699</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>815</v>
+      </c>
+      <c r="C76" t="s">
+        <v>660</v>
+      </c>
+      <c r="D76" t="s">
+        <v>816</v>
+      </c>
+      <c r="E76" t="s">
+        <v>817</v>
+      </c>
+      <c r="F76" t="s">
+        <v>818</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>819</v>
+      </c>
+      <c r="C77" t="s">
+        <v>677</v>
+      </c>
+      <c r="D77" t="s">
+        <v>820</v>
+      </c>
+      <c r="E77" t="s">
+        <v>698</v>
+      </c>
+      <c r="F77" t="s">
+        <v>821</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>822</v>
+      </c>
+      <c r="C78" t="s">
+        <v>677</v>
+      </c>
+      <c r="D78" t="s">
+        <v>697</v>
+      </c>
+      <c r="E78" t="s">
+        <v>698</v>
+      </c>
+      <c r="F78" t="s">
+        <v>699</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>823</v>
+      </c>
+      <c r="C79" t="s">
+        <v>677</v>
+      </c>
+      <c r="D79" t="s">
+        <v>697</v>
+      </c>
+      <c r="E79" t="s">
+        <v>698</v>
+      </c>
+      <c r="F79" t="s">
+        <v>699</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>824</v>
+      </c>
+      <c r="C80" t="s">
+        <v>660</v>
+      </c>
+      <c r="D80" t="s">
+        <v>697</v>
+      </c>
+      <c r="E80" t="s">
+        <v>708</v>
+      </c>
+      <c r="F80" t="s">
+        <v>699</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>825</v>
+      </c>
+      <c r="C81" t="s">
+        <v>677</v>
+      </c>
+      <c r="D81" t="s">
+        <v>697</v>
+      </c>
+      <c r="E81" t="s">
+        <v>698</v>
+      </c>
+      <c r="F81" t="s">
+        <v>699</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>826</v>
+      </c>
+      <c r="C82" t="s">
+        <v>677</v>
+      </c>
+      <c r="D82" t="s">
+        <v>697</v>
+      </c>
+      <c r="E82" t="s">
+        <v>698</v>
+      </c>
+      <c r="F82" t="s">
+        <v>699</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>827</v>
+      </c>
+      <c r="C83" t="s">
+        <v>677</v>
+      </c>
+      <c r="D83" t="s">
+        <v>697</v>
+      </c>
+      <c r="E83" t="s">
+        <v>698</v>
+      </c>
+      <c r="F83" t="s">
+        <v>699</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>712</v>
+      </c>
+      <c r="C84" t="s">
+        <v>677</v>
+      </c>
+      <c r="D84" t="s">
+        <v>678</v>
+      </c>
+      <c r="E84" t="s">
+        <v>828</v>
+      </c>
+      <c r="F84" t="s">
+        <v>829</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>652</v>
+      </c>
+      <c r="B87" t="s">
+        <v>653</v>
+      </c>
+      <c r="C87" t="s">
+        <v>654</v>
+      </c>
+      <c r="D87" t="s">
+        <v>655</v>
+      </c>
+      <c r="E87" t="s">
+        <v>656</v>
+      </c>
+      <c r="F87" t="s">
+        <v>657</v>
+      </c>
+      <c r="G87" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>701</v>
+      </c>
+      <c r="C88" t="s">
+        <v>702</v>
+      </c>
+      <c r="D88" t="s">
+        <v>697</v>
+      </c>
+      <c r="E88" t="s">
+        <v>702</v>
+      </c>
+      <c r="F88" t="s">
+        <v>831</v>
+      </c>
+      <c r="G88" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>659</v>
+      </c>
+      <c r="C89" t="s">
+        <v>660</v>
+      </c>
+      <c r="D89" t="s">
+        <v>661</v>
+      </c>
+      <c r="E89" t="s">
+        <v>662</v>
+      </c>
+      <c r="F89" t="s">
+        <v>705</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>832</v>
+      </c>
+      <c r="C90" t="s">
+        <v>660</v>
+      </c>
+      <c r="D90" t="s">
+        <v>697</v>
+      </c>
+      <c r="E90" t="s">
+        <v>708</v>
+      </c>
+      <c r="F90" t="s">
+        <v>699</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>833</v>
+      </c>
+      <c r="C91" t="s">
+        <v>660</v>
+      </c>
+      <c r="D91" t="s">
+        <v>697</v>
+      </c>
+      <c r="E91" t="s">
+        <v>708</v>
+      </c>
+      <c r="F91" t="s">
+        <v>699</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>834</v>
+      </c>
+      <c r="C92" t="s">
+        <v>660</v>
+      </c>
+      <c r="D92" t="s">
+        <v>697</v>
+      </c>
+      <c r="E92" t="s">
+        <v>708</v>
+      </c>
+      <c r="F92" t="s">
+        <v>699</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>835</v>
+      </c>
+      <c r="C93" t="s">
+        <v>660</v>
+      </c>
+      <c r="D93" t="s">
+        <v>697</v>
+      </c>
+      <c r="E93" t="s">
+        <v>708</v>
+      </c>
+      <c r="F93" t="s">
+        <v>699</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>836</v>
+      </c>
+      <c r="C94" t="s">
+        <v>660</v>
+      </c>
+      <c r="D94" t="s">
+        <v>697</v>
+      </c>
+      <c r="E94" t="s">
+        <v>708</v>
+      </c>
+      <c r="F94" t="s">
+        <v>699</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>652</v>
+      </c>
+      <c r="B97" t="s">
+        <v>653</v>
+      </c>
+      <c r="C97" t="s">
+        <v>654</v>
+      </c>
+      <c r="D97" t="s">
+        <v>655</v>
+      </c>
+      <c r="E97" t="s">
+        <v>656</v>
+      </c>
+      <c r="F97" t="s">
+        <v>657</v>
+      </c>
+      <c r="G97" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>659</v>
+      </c>
+      <c r="C98" t="s">
+        <v>660</v>
+      </c>
+      <c r="D98" t="s">
+        <v>661</v>
+      </c>
+      <c r="E98" t="s">
+        <v>662</v>
+      </c>
+      <c r="F98" t="s">
+        <v>705</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>838</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>839</v>
+      </c>
+      <c r="E99" t="s">
+        <v>840</v>
+      </c>
+      <c r="F99" t="s">
+        <v>841</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB09C3F-18DD-4809-8D44-E67EF02FE17A}">
+  <dimension ref="A1:G99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="208" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="247" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" t="s">
+        <v>660</v>
+      </c>
+      <c r="D3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F4" t="s">
+        <v>667</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" t="s">
+        <v>677</v>
+      </c>
+      <c r="D7" t="s">
+        <v>678</v>
+      </c>
+      <c r="E7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" t="s">
+        <v>682</v>
+      </c>
+      <c r="E8" t="s">
+        <v>683</v>
+      </c>
+      <c r="F8" t="s">
+        <v>667</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>684</v>
+      </c>
+      <c r="C9" t="s">
+        <v>685</v>
+      </c>
+      <c r="D9" t="s">
+        <v>686</v>
+      </c>
+      <c r="E9" t="s">
+        <v>687</v>
+      </c>
+      <c r="F9" t="s">
+        <v>688</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>685</v>
+      </c>
+      <c r="D10" t="s">
+        <v>686</v>
+      </c>
+      <c r="E10" t="s">
+        <v>690</v>
+      </c>
+      <c r="F10" t="s">
+        <v>691</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C11" t="s">
+        <v>685</v>
+      </c>
+      <c r="D11" t="s">
+        <v>693</v>
+      </c>
+      <c r="E11" t="s">
+        <v>694</v>
+      </c>
+      <c r="F11" t="s">
+        <v>695</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>696</v>
+      </c>
+      <c r="C12" t="s">
+        <v>677</v>
+      </c>
+      <c r="D12" t="s">
+        <v>697</v>
+      </c>
+      <c r="E12" t="s">
+        <v>698</v>
+      </c>
+      <c r="F12" t="s">
+        <v>699</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>652</v>
+      </c>
+      <c r="B15" t="s">
+        <v>653</v>
+      </c>
+      <c r="C15" t="s">
+        <v>654</v>
+      </c>
+      <c r="D15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E15" t="s">
+        <v>656</v>
+      </c>
+      <c r="F15" t="s">
+        <v>657</v>
+      </c>
+      <c r="G15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>701</v>
+      </c>
+      <c r="C16" t="s">
+        <v>702</v>
+      </c>
+      <c r="D16" t="s">
+        <v>703</v>
+      </c>
+      <c r="E16" t="s">
+        <v>702</v>
+      </c>
+      <c r="F16" t="s">
+        <v>704</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>659</v>
+      </c>
+      <c r="C17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D17" t="s">
+        <v>661</v>
+      </c>
+      <c r="E17" t="s">
+        <v>662</v>
+      </c>
+      <c r="F17" t="s">
+        <v>705</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>706</v>
+      </c>
+      <c r="C18" t="s">
+        <v>660</v>
+      </c>
+      <c r="D18" t="s">
+        <v>707</v>
+      </c>
+      <c r="E18" t="s">
+        <v>708</v>
+      </c>
+      <c r="F18" t="s">
+        <v>699</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>709</v>
+      </c>
+      <c r="C19" t="s">
+        <v>677</v>
+      </c>
+      <c r="D19" t="s">
+        <v>678</v>
+      </c>
+      <c r="E19" t="s">
+        <v>710</v>
+      </c>
+      <c r="F19" t="s">
+        <v>711</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C20" t="s">
+        <v>677</v>
+      </c>
+      <c r="D20" t="s">
+        <v>678</v>
+      </c>
+      <c r="E20" t="s">
+        <v>843</v>
+      </c>
+      <c r="F20" t="s">
+        <v>680</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>714</v>
+      </c>
+      <c r="C21" t="s">
+        <v>677</v>
+      </c>
+      <c r="D21" t="s">
+        <v>697</v>
+      </c>
+      <c r="E21" t="s">
+        <v>698</v>
+      </c>
+      <c r="F21" t="s">
+        <v>699</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>715</v>
+      </c>
+      <c r="C22" t="s">
+        <v>677</v>
+      </c>
+      <c r="D22" t="s">
+        <v>716</v>
+      </c>
+      <c r="E22" t="s">
+        <v>717</v>
+      </c>
+      <c r="F22" t="s">
+        <v>718</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>719</v>
+      </c>
+      <c r="C23" t="s">
+        <v>677</v>
+      </c>
+      <c r="D23" t="s">
+        <v>716</v>
+      </c>
+      <c r="E23" t="s">
+        <v>720</v>
+      </c>
+      <c r="F23" t="s">
+        <v>718</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>721</v>
+      </c>
+      <c r="C24" t="s">
+        <v>685</v>
+      </c>
+      <c r="D24" t="s">
+        <v>722</v>
+      </c>
+      <c r="E24" t="s">
+        <v>723</v>
+      </c>
+      <c r="F24" t="s">
+        <v>724</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>725</v>
+      </c>
+      <c r="C25" t="s">
+        <v>685</v>
+      </c>
+      <c r="D25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E25" t="s">
+        <v>727</v>
+      </c>
+      <c r="F25" t="s">
+        <v>728</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>729</v>
+      </c>
+      <c r="C26" t="s">
+        <v>660</v>
+      </c>
+      <c r="D26" t="s">
+        <v>697</v>
+      </c>
+      <c r="E26" t="s">
+        <v>708</v>
+      </c>
+      <c r="F26" t="s">
+        <v>730</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>731</v>
+      </c>
+      <c r="C27" t="s">
+        <v>660</v>
+      </c>
+      <c r="D27" t="s">
+        <v>732</v>
+      </c>
+      <c r="E27" t="s">
+        <v>733</v>
+      </c>
+      <c r="F27" t="s">
+        <v>734</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" t="s">
+        <v>677</v>
+      </c>
+      <c r="D28" t="s">
+        <v>736</v>
+      </c>
+      <c r="E28" t="s">
+        <v>737</v>
+      </c>
+      <c r="F28" t="s">
+        <v>738</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>739</v>
+      </c>
+      <c r="C29" t="s">
+        <v>660</v>
+      </c>
+      <c r="D29" t="s">
+        <v>740</v>
+      </c>
+      <c r="E29" t="s">
+        <v>741</v>
+      </c>
+      <c r="F29" t="s">
+        <v>742</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>743</v>
+      </c>
+      <c r="C30" t="s">
+        <v>677</v>
+      </c>
+      <c r="D30" t="s">
+        <v>744</v>
+      </c>
+      <c r="E30" t="s">
+        <v>745</v>
+      </c>
+      <c r="F30" t="s">
+        <v>746</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>747</v>
+      </c>
+      <c r="C31" t="s">
+        <v>660</v>
+      </c>
+      <c r="D31" t="s">
+        <v>748</v>
+      </c>
+      <c r="E31" t="s">
+        <v>749</v>
+      </c>
+      <c r="F31" t="s">
+        <v>750</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>751</v>
+      </c>
+      <c r="C32" t="s">
+        <v>677</v>
+      </c>
+      <c r="D32" t="s">
+        <v>752</v>
+      </c>
+      <c r="E32" t="s">
+        <v>753</v>
+      </c>
+      <c r="F32" t="s">
+        <v>754</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>755</v>
+      </c>
+      <c r="C33" t="s">
+        <v>660</v>
+      </c>
+      <c r="D33" t="s">
+        <v>756</v>
+      </c>
+      <c r="E33" t="s">
+        <v>757</v>
+      </c>
+      <c r="F33" t="s">
+        <v>758</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>759</v>
+      </c>
+      <c r="C34" t="s">
+        <v>677</v>
+      </c>
+      <c r="D34" t="s">
+        <v>760</v>
+      </c>
+      <c r="E34" t="s">
+        <v>761</v>
+      </c>
+      <c r="F34" t="s">
+        <v>762</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>763</v>
+      </c>
+      <c r="C35" t="s">
+        <v>660</v>
+      </c>
+      <c r="D35" t="s">
+        <v>764</v>
+      </c>
+      <c r="E35" t="s">
+        <v>765</v>
+      </c>
+      <c r="F35" t="s">
+        <v>766</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>767</v>
+      </c>
+      <c r="C36" t="s">
+        <v>677</v>
+      </c>
+      <c r="D36" t="s">
+        <v>768</v>
+      </c>
+      <c r="E36" t="s">
+        <v>769</v>
+      </c>
+      <c r="F36" t="s">
+        <v>770</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>771</v>
+      </c>
+      <c r="C37" t="s">
+        <v>660</v>
+      </c>
+      <c r="D37" t="s">
+        <v>697</v>
+      </c>
+      <c r="E37" t="s">
+        <v>708</v>
+      </c>
+      <c r="F37" t="s">
+        <v>699</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>772</v>
+      </c>
+      <c r="C38" t="s">
+        <v>677</v>
+      </c>
+      <c r="D38" t="s">
+        <v>697</v>
+      </c>
+      <c r="E38" t="s">
+        <v>698</v>
+      </c>
+      <c r="F38" t="s">
+        <v>699</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>773</v>
+      </c>
+      <c r="C39" t="s">
+        <v>660</v>
+      </c>
+      <c r="D39" t="s">
+        <v>697</v>
+      </c>
+      <c r="E39" t="s">
+        <v>708</v>
+      </c>
+      <c r="F39" t="s">
+        <v>699</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>774</v>
+      </c>
+      <c r="C40" t="s">
+        <v>677</v>
+      </c>
+      <c r="D40" t="s">
+        <v>697</v>
+      </c>
+      <c r="E40" t="s">
+        <v>698</v>
+      </c>
+      <c r="F40" t="s">
+        <v>699</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>775</v>
+      </c>
+      <c r="C41" t="s">
+        <v>660</v>
+      </c>
+      <c r="D41" t="s">
+        <v>697</v>
+      </c>
+      <c r="E41" t="s">
+        <v>708</v>
+      </c>
+      <c r="F41" t="s">
+        <v>699</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>776</v>
+      </c>
+      <c r="C42" t="s">
+        <v>677</v>
+      </c>
+      <c r="D42" t="s">
+        <v>697</v>
+      </c>
+      <c r="E42" t="s">
+        <v>698</v>
+      </c>
+      <c r="F42" t="s">
+        <v>699</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>777</v>
+      </c>
+      <c r="C43" t="s">
+        <v>660</v>
+      </c>
+      <c r="D43" t="s">
+        <v>697</v>
+      </c>
+      <c r="E43" t="s">
+        <v>708</v>
+      </c>
+      <c r="F43" t="s">
+        <v>699</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>778</v>
+      </c>
+      <c r="C44" t="s">
+        <v>677</v>
+      </c>
+      <c r="D44" t="s">
+        <v>697</v>
+      </c>
+      <c r="E44" t="s">
+        <v>698</v>
+      </c>
+      <c r="F44" t="s">
+        <v>699</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>779</v>
+      </c>
+      <c r="C45" t="s">
+        <v>660</v>
+      </c>
+      <c r="D45" t="s">
+        <v>697</v>
+      </c>
+      <c r="E45" t="s">
+        <v>708</v>
+      </c>
+      <c r="F45" t="s">
+        <v>699</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>780</v>
+      </c>
+      <c r="C46" t="s">
+        <v>677</v>
+      </c>
+      <c r="D46" t="s">
+        <v>697</v>
+      </c>
+      <c r="E46" t="s">
+        <v>698</v>
+      </c>
+      <c r="F46" t="s">
+        <v>699</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>781</v>
+      </c>
+      <c r="C47" t="s">
+        <v>677</v>
+      </c>
+      <c r="D47" t="s">
+        <v>697</v>
+      </c>
+      <c r="E47" t="s">
+        <v>698</v>
+      </c>
+      <c r="F47" t="s">
+        <v>699</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>782</v>
+      </c>
+      <c r="C48" t="s">
+        <v>677</v>
+      </c>
+      <c r="D48" t="s">
+        <v>697</v>
+      </c>
+      <c r="E48" t="s">
+        <v>698</v>
+      </c>
+      <c r="F48" t="s">
+        <v>699</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>783</v>
+      </c>
+      <c r="C49" t="s">
+        <v>660</v>
+      </c>
+      <c r="D49" t="s">
+        <v>697</v>
+      </c>
+      <c r="E49" t="s">
+        <v>708</v>
+      </c>
+      <c r="F49" t="s">
+        <v>699</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>784</v>
+      </c>
+      <c r="C50" t="s">
+        <v>685</v>
+      </c>
+      <c r="D50" t="s">
+        <v>697</v>
+      </c>
+      <c r="E50" t="s">
+        <v>785</v>
+      </c>
+      <c r="F50" t="s">
+        <v>699</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>652</v>
+      </c>
+      <c r="B53" t="s">
+        <v>653</v>
+      </c>
+      <c r="C53" t="s">
+        <v>654</v>
+      </c>
+      <c r="D53" t="s">
+        <v>655</v>
+      </c>
+      <c r="E53" t="s">
+        <v>656</v>
+      </c>
+      <c r="F53" t="s">
+        <v>657</v>
+      </c>
+      <c r="G53" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>701</v>
+      </c>
+      <c r="C54" t="s">
+        <v>702</v>
+      </c>
+      <c r="D54" t="s">
+        <v>922</v>
+      </c>
+      <c r="E54" t="s">
+        <v>702</v>
+      </c>
+      <c r="F54" t="s">
+        <v>788</v>
+      </c>
+      <c r="G54" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>659</v>
+      </c>
+      <c r="C55" t="s">
+        <v>660</v>
+      </c>
+      <c r="D55" t="s">
+        <v>661</v>
+      </c>
+      <c r="E55" t="s">
+        <v>662</v>
+      </c>
+      <c r="F55" t="s">
+        <v>705</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>706</v>
+      </c>
+      <c r="C56" t="s">
+        <v>660</v>
+      </c>
+      <c r="D56" t="s">
+        <v>707</v>
+      </c>
+      <c r="E56" t="s">
+        <v>708</v>
+      </c>
+      <c r="F56" t="s">
+        <v>699</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>709</v>
+      </c>
+      <c r="C57" t="s">
+        <v>677</v>
+      </c>
+      <c r="D57" t="s">
+        <v>678</v>
+      </c>
+      <c r="E57" t="s">
+        <v>710</v>
+      </c>
+      <c r="F57" t="s">
+        <v>711</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>712</v>
+      </c>
+      <c r="C58" t="s">
+        <v>677</v>
+      </c>
+      <c r="D58" t="s">
+        <v>678</v>
+      </c>
+      <c r="E58" t="s">
+        <v>843</v>
+      </c>
+      <c r="F58" t="s">
+        <v>680</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>714</v>
+      </c>
+      <c r="C59" t="s">
+        <v>677</v>
+      </c>
+      <c r="D59" t="s">
+        <v>790</v>
+      </c>
+      <c r="E59" t="s">
+        <v>698</v>
+      </c>
+      <c r="F59" t="s">
+        <v>699</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>715</v>
+      </c>
+      <c r="C60" t="s">
+        <v>677</v>
+      </c>
+      <c r="D60" t="s">
+        <v>697</v>
+      </c>
+      <c r="E60" t="s">
+        <v>698</v>
+      </c>
+      <c r="F60" t="s">
+        <v>699</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>719</v>
+      </c>
+      <c r="C61" t="s">
+        <v>677</v>
+      </c>
+      <c r="D61" t="s">
+        <v>697</v>
+      </c>
+      <c r="E61" t="s">
+        <v>698</v>
+      </c>
+      <c r="F61" t="s">
+        <v>699</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>721</v>
+      </c>
+      <c r="C62" t="s">
+        <v>685</v>
+      </c>
+      <c r="D62" t="s">
+        <v>697</v>
+      </c>
+      <c r="E62" t="s">
+        <v>785</v>
+      </c>
+      <c r="F62" t="s">
+        <v>699</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>725</v>
+      </c>
+      <c r="C63" t="s">
+        <v>685</v>
+      </c>
+      <c r="D63" t="s">
+        <v>697</v>
+      </c>
+      <c r="E63" t="s">
+        <v>785</v>
+      </c>
+      <c r="F63" t="s">
+        <v>699</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>791</v>
+      </c>
+      <c r="C64" t="s">
+        <v>660</v>
+      </c>
+      <c r="D64" t="s">
+        <v>916</v>
+      </c>
+      <c r="E64" t="s">
+        <v>918</v>
+      </c>
+      <c r="F64" t="s">
+        <v>794</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>795</v>
+      </c>
+      <c r="C65" t="s">
+        <v>660</v>
+      </c>
+      <c r="D65" t="s">
+        <v>921</v>
+      </c>
+      <c r="E65" t="s">
+        <v>917</v>
+      </c>
+      <c r="F65" t="s">
+        <v>798</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>799</v>
+      </c>
+      <c r="C66" t="s">
+        <v>660</v>
+      </c>
+      <c r="D66" t="s">
+        <v>920</v>
+      </c>
+      <c r="E66" t="s">
+        <v>919</v>
+      </c>
+      <c r="F66" t="s">
+        <v>802</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>652</v>
+      </c>
+      <c r="B69" t="s">
+        <v>653</v>
+      </c>
+      <c r="C69" t="s">
+        <v>654</v>
+      </c>
+      <c r="D69" t="s">
+        <v>655</v>
+      </c>
+      <c r="E69" t="s">
+        <v>656</v>
+      </c>
+      <c r="F69" t="s">
+        <v>657</v>
+      </c>
+      <c r="G69" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>701</v>
+      </c>
+      <c r="C70" t="s">
+        <v>702</v>
+      </c>
+      <c r="D70" t="s">
+        <v>804</v>
+      </c>
+      <c r="E70" t="s">
+        <v>702</v>
+      </c>
+      <c r="F70" t="s">
+        <v>805</v>
+      </c>
+      <c r="G70" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>659</v>
+      </c>
+      <c r="C71" t="s">
+        <v>660</v>
+      </c>
+      <c r="D71" t="s">
+        <v>661</v>
+      </c>
+      <c r="E71" t="s">
+        <v>662</v>
+      </c>
+      <c r="F71" t="s">
+        <v>705</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>806</v>
+      </c>
+      <c r="C72" t="s">
+        <v>660</v>
+      </c>
+      <c r="D72" t="s">
+        <v>939</v>
+      </c>
+      <c r="E72" t="s">
+        <v>940</v>
+      </c>
+      <c r="F72" t="s">
+        <v>943</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>810</v>
+      </c>
+      <c r="C73" t="s">
+        <v>677</v>
+      </c>
+      <c r="D73" t="s">
+        <v>923</v>
+      </c>
+      <c r="E73" t="s">
+        <v>924</v>
+      </c>
+      <c r="F73" t="s">
+        <v>944</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>813</v>
+      </c>
+      <c r="C74" t="s">
+        <v>677</v>
+      </c>
+      <c r="D74" t="s">
+        <v>925</v>
+      </c>
+      <c r="E74" t="s">
+        <v>926</v>
+      </c>
+      <c r="F74" t="s">
+        <v>927</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>814</v>
+      </c>
+      <c r="C75" t="s">
+        <v>677</v>
+      </c>
+      <c r="D75" t="s">
+        <v>928</v>
+      </c>
+      <c r="E75" t="s">
+        <v>929</v>
+      </c>
+      <c r="F75" t="s">
+        <v>927</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>815</v>
+      </c>
+      <c r="C76" t="s">
+        <v>660</v>
+      </c>
+      <c r="D76" t="s">
+        <v>942</v>
+      </c>
+      <c r="E76" t="s">
+        <v>941</v>
+      </c>
+      <c r="F76" t="s">
+        <v>930</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>819</v>
+      </c>
+      <c r="C77" t="s">
+        <v>677</v>
+      </c>
+      <c r="D77" t="s">
+        <v>931</v>
+      </c>
+      <c r="E77" t="s">
+        <v>932</v>
+      </c>
+      <c r="F77" t="s">
+        <v>945</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>822</v>
+      </c>
+      <c r="C78" t="s">
+        <v>677</v>
+      </c>
+      <c r="D78" t="s">
+        <v>933</v>
+      </c>
+      <c r="E78" t="s">
+        <v>934</v>
+      </c>
+      <c r="F78" t="s">
+        <v>935</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>823</v>
+      </c>
+      <c r="C79" t="s">
+        <v>677</v>
+      </c>
+      <c r="D79" t="s">
+        <v>936</v>
+      </c>
+      <c r="E79" t="s">
+        <v>937</v>
+      </c>
+      <c r="F79" t="s">
+        <v>938</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>824</v>
+      </c>
+      <c r="C80" t="s">
+        <v>660</v>
+      </c>
+      <c r="D80" t="s">
+        <v>697</v>
+      </c>
+      <c r="E80" t="s">
+        <v>708</v>
+      </c>
+      <c r="F80" t="s">
+        <v>699</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>825</v>
+      </c>
+      <c r="C81" t="s">
+        <v>677</v>
+      </c>
+      <c r="D81" t="s">
+        <v>697</v>
+      </c>
+      <c r="E81" t="s">
+        <v>698</v>
+      </c>
+      <c r="F81" t="s">
+        <v>699</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>826</v>
+      </c>
+      <c r="C82" t="s">
+        <v>677</v>
+      </c>
+      <c r="D82" t="s">
+        <v>697</v>
+      </c>
+      <c r="E82" t="s">
+        <v>698</v>
+      </c>
+      <c r="F82" t="s">
+        <v>699</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>827</v>
+      </c>
+      <c r="C83" t="s">
+        <v>677</v>
+      </c>
+      <c r="D83" t="s">
+        <v>697</v>
+      </c>
+      <c r="E83" t="s">
+        <v>698</v>
+      </c>
+      <c r="F83" t="s">
+        <v>699</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>712</v>
+      </c>
+      <c r="C84" t="s">
+        <v>677</v>
+      </c>
+      <c r="D84" t="s">
+        <v>678</v>
+      </c>
+      <c r="E84" t="s">
+        <v>828</v>
+      </c>
+      <c r="F84" t="s">
+        <v>829</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>652</v>
+      </c>
+      <c r="B87" t="s">
+        <v>653</v>
+      </c>
+      <c r="C87" t="s">
+        <v>654</v>
+      </c>
+      <c r="D87" t="s">
+        <v>655</v>
+      </c>
+      <c r="E87" t="s">
+        <v>656</v>
+      </c>
+      <c r="F87" t="s">
+        <v>657</v>
+      </c>
+      <c r="G87" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>701</v>
+      </c>
+      <c r="C88" t="s">
+        <v>702</v>
+      </c>
+      <c r="D88" t="s">
+        <v>697</v>
+      </c>
+      <c r="E88" t="s">
+        <v>702</v>
+      </c>
+      <c r="F88" t="s">
+        <v>831</v>
+      </c>
+      <c r="G88" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>659</v>
+      </c>
+      <c r="C89" t="s">
+        <v>660</v>
+      </c>
+      <c r="D89" t="s">
+        <v>661</v>
+      </c>
+      <c r="E89" t="s">
+        <v>662</v>
+      </c>
+      <c r="F89" t="s">
+        <v>705</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>832</v>
+      </c>
+      <c r="C90" t="s">
+        <v>660</v>
+      </c>
+      <c r="D90" t="s">
+        <v>697</v>
+      </c>
+      <c r="E90" t="s">
+        <v>708</v>
+      </c>
+      <c r="F90" t="s">
+        <v>699</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>833</v>
+      </c>
+      <c r="C91" t="s">
+        <v>660</v>
+      </c>
+      <c r="D91" t="s">
+        <v>697</v>
+      </c>
+      <c r="E91" t="s">
+        <v>708</v>
+      </c>
+      <c r="F91" t="s">
+        <v>699</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>834</v>
+      </c>
+      <c r="C92" t="s">
+        <v>660</v>
+      </c>
+      <c r="D92" t="s">
+        <v>697</v>
+      </c>
+      <c r="E92" t="s">
+        <v>708</v>
+      </c>
+      <c r="F92" t="s">
+        <v>699</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>835</v>
+      </c>
+      <c r="C93" t="s">
+        <v>660</v>
+      </c>
+      <c r="D93" t="s">
+        <v>697</v>
+      </c>
+      <c r="E93" t="s">
+        <v>708</v>
+      </c>
+      <c r="F93" t="s">
+        <v>699</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>836</v>
+      </c>
+      <c r="C94" t="s">
+        <v>660</v>
+      </c>
+      <c r="D94" t="s">
+        <v>697</v>
+      </c>
+      <c r="E94" t="s">
+        <v>708</v>
+      </c>
+      <c r="F94" t="s">
+        <v>699</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>652</v>
+      </c>
+      <c r="B97" t="s">
+        <v>653</v>
+      </c>
+      <c r="C97" t="s">
+        <v>654</v>
+      </c>
+      <c r="D97" t="s">
+        <v>655</v>
+      </c>
+      <c r="E97" t="s">
+        <v>656</v>
+      </c>
+      <c r="F97" t="s">
+        <v>657</v>
+      </c>
+      <c r="G97" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>659</v>
+      </c>
+      <c r="C98" t="s">
+        <v>660</v>
+      </c>
+      <c r="D98" t="s">
+        <v>661</v>
+      </c>
+      <c r="E98" t="s">
+        <v>662</v>
+      </c>
+      <c r="F98" t="s">
+        <v>705</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>838</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>839</v>
+      </c>
+      <c r="E99" t="s">
+        <v>840</v>
+      </c>
+      <c r="F99" t="s">
+        <v>841</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MB/attribute_dependencies.xlsx
+++ b/MB/attribute_dependencies.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIVER37\Documents\github\cas\MB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PierreV\CAS\MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DCE794-D631-4868-B92E-82131E041D73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_dependencies" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5590" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="966">
   <si>
     <t>inventory_id</t>
   </si>
@@ -2172,21 +2171,12 @@
     <t>CROWN_CLOSURE_UPPER</t>
   </si>
   <si>
-    <t>notNull(crown_closure_upper);notEmpty(crown_closure_upper|-8888);matchList(crown_closure_upper,{'J','I','H','G','F','E','D','C','B','A'}|-9997)</t>
-  </si>
-  <si>
-    <t>mapInt(crown_closure_upper, {'J','I','H','G','F','E','D','C','B','A'}, {10,20,30,40,50,60,70,80,90,100})</t>
-  </si>
-  <si>
     <t>Maps source value to CROWN_CLOSURE_UPPER using lists of values.</t>
   </si>
   <si>
     <t>CROWN_CLOSURE_LOWER</t>
   </si>
   <si>
-    <t>mapInt(crown_closure_upper, {'J','I','H','G','F','E','D','C','B','A'}, {1,11,21,31,41,51,61,71,81,91})</t>
-  </si>
-  <si>
     <t>HEIGHT_UPPER</t>
   </si>
   <si>
@@ -2220,12 +2210,6 @@
     <t>SPECIES_1</t>
   </si>
   <si>
-    <t>notNull(species_1);notEmpty(species_1);matchTable(species_1, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
-  </si>
-  <si>
-    <t>lookupText(species_1, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
-  </si>
-  <si>
     <t>Maps source value to SPECIES_1 using lookup table</t>
   </si>
   <si>
@@ -2244,12 +2228,6 @@
     <t>SPECIES_2</t>
   </si>
   <si>
-    <t>notNull(species_2);notEmpty(species_2);matchTable(species_2, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
-  </si>
-  <si>
-    <t>lookupText(species_2, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
-  </si>
-  <si>
     <t>Maps source value to SPECIES_2 using lookup table. Uses a second column in the lookup table to allow the layer 2 source values to be translated to different target values for species 1 and species 2.</t>
   </si>
   <si>
@@ -2268,12 +2246,6 @@
     <t>SPECIES_3</t>
   </si>
   <si>
-    <t>notNull(species_3);notEmpty(species_3);matchTable(species_3, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
-  </si>
-  <si>
-    <t>lookupText(species_3, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
-  </si>
-  <si>
     <t>Maps source value to SPECIES_3 using lookup table</t>
   </si>
   <si>
@@ -2292,12 +2264,6 @@
     <t>SPECIES_4</t>
   </si>
   <si>
-    <t>notNull(species_4);notEmpty(species_4);matchTable(species_4, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
-  </si>
-  <si>
-    <t>lookupText(species_4, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
-  </si>
-  <si>
     <t>Maps source value to SPECIES_4 using lookup table</t>
   </si>
   <si>
@@ -2316,12 +2282,6 @@
     <t>SPECIES_5</t>
   </si>
   <si>
-    <t>notNull(species_5);notEmpty(species_5);matchTable(species_5, 'translation', 'species_code_mapping', 'pe_species_codes', 'TRUE')</t>
-  </si>
-  <si>
-    <t>lookupText(species_5, 'translation', 'species_code_mapping', 'pe_species_codes', 'casfri_species_codes', 'TRUE')</t>
-  </si>
-  <si>
     <t>Maps source value to SPECIES_5 using lookup table</t>
   </si>
   <si>
@@ -2775,15 +2735,6 @@
     <t>notNull(nnf_anth);matchList(nnf_anth,{'NMB','NMC','NMF','NMR','NMS','NMM','NMG','NWL','NWR','NWF'}|NOT_APPLICABLE)</t>
   </si>
   <si>
-    <t>mapText(landtype, {'CIP','CIW','CIU','ASC','ASR','ASP','ASN','AIH','AIR','AIG','AII','AIW','AIA','AIF','AIU'}, {})</t>
-  </si>
-  <si>
-    <t>mapText(landtype, {'NMB','NMC','NMF','NMR','NMS','NMM','NMG','NWL','NWR','NWF'}, {})</t>
-  </si>
-  <si>
-    <t>mapText(landtype,{'SO','AL','SC','CC','HG','CS','HF','AS','HU','VI','BR','RA','CL','DL','AU'}, {})</t>
-  </si>
-  <si>
     <t>notNull(nnf_anth);matchList(nnf_anth,{'SO','AL','SC','CC','HG','CS','HF','AS','HU','VI','BR','RA','CL','DL','AU'}|NOT_APPLICABLE)</t>
   </si>
   <si>
@@ -2844,12 +2795,6 @@
     <t>notNull(dist_type_1);notEmpty(dist_type_1);matchList(dist_type_1,{'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'})</t>
   </si>
   <si>
-    <t>mapText(dist_type_1, {'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'}, {})</t>
-  </si>
-  <si>
-    <t>mapText(dist_type_2, {'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'}, {})</t>
-  </si>
-  <si>
     <t>notNull(dist_type_2);notEmpty(dist_type_2);matchList(dist_type_2,{'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'})</t>
   </si>
   <si>
@@ -2860,13 +2805,127 @@
   </si>
   <si>
     <t>Copies mod1_yr to DIST_YEAR_2.</t>
+  </si>
+  <si>
+    <t>mapText(dist_type_1, {'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'}, {'CUT','BURN','WINDFALL','OTHER','DISEASE','DISEASE','INSECT','INSECT','OTHER','FLOOD','FLOOD','FLOOD','WEATHER','DEAD_UNKNOWN','OTHER'})</t>
+  </si>
+  <si>
+    <t>mapText(dist_type_2, {'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'}, {'CUT','BURN','WINDFALL','OTHER','DISEASE','DISEASE','INSECT','INSECT','OTHER','FLOOD','FLOOD','FLOOD','WEATHER','DEAD_UNKNOWN','OTHER'})</t>
+  </si>
+  <si>
+    <t>mapText(landtype, {'NMB','NMC','NMF','NMR','NMS','NMM','NMG','NWL','NWR','NWF'}, {'EXPOSED_LAND','EXPOSED_LAND','ROCK_RUBBLE','ROCK_RUBBLE','SAND','EXPOSED_LAND','WATER_SEDIMENT','LAKE','RIVER','FLOOD'})</t>
+  </si>
+  <si>
+    <t>mapText(landtype, {'CIP','CIW','CIU','ASC','ASR','ASP','ASN','AIH','AIR','AIG','AII','AIW','AIA','AIF','AIU'}, {'FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','OTHER','SETTLEMENT','SETTLEMENT','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','INDUSTRIAL','INDUSTRIAL','LAGOON','FACILITY_INFRASTRUCTURE','SETTLEMENT','OTHER'})</t>
+  </si>
+  <si>
+    <t>mapText(landtype,{'SO','AL','SC','CC','HG','CS','HF','AS','HU','VI','BR','RA','CL','DL','AU'}, {'OPEN_SHRUB','TALL_SHRUB','TALL_SHRUB','TALL_SHRUB','GRAMINOIDS','TALL_SHRUB','FORBS','TALL_SHRUB','FORBS','TALL_SHRUB','BRYOD','LOW_SHRUB','BRYOD','LOW_SHRUB','LOW_SHRUB'})</t>
+  </si>
+  <si>
+    <t>notNull(site);matchList(site,{'1','2','3'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>mapText(site, {'1','2','3'}, {'G','M','P'})</t>
+  </si>
+  <si>
+    <t>Maps source value to SITE using list of values.</t>
+  </si>
+  <si>
+    <t>notNull(origin_upper);isInt(origin_upper);isBetween(origin_upper,1000,2020)</t>
+  </si>
+  <si>
+    <t>copyInt(origin_upper)</t>
+  </si>
+  <si>
+    <t>Copies (origin) to ORIGIN_UPPER</t>
+  </si>
+  <si>
+    <t>notNull(origin_lower);isInt(origin_lower);isBetween(origin_lower,1000,2020)</t>
+  </si>
+  <si>
+    <t>copyInt(origin_lower)</t>
+  </si>
+  <si>
+    <t>Copies (origin) to ORIGIN_LOWER</t>
+  </si>
+  <si>
+    <t>notNull(crown_closure_upper);notEmpty(crown_closure_upper|-8888);matchList(crown_closure_upper,{'0','1','2','3','4','5','6','7','8','9'}|-9997)</t>
+  </si>
+  <si>
+    <t>mapInt(crown_closure_upper, {'0','1','2','3','4','5','6','7','8','9'}, {10,20,30,40,50,60,70,80,90,100})</t>
+  </si>
+  <si>
+    <t>mapInt(crown_closure_upper, {'0','1','2','3','4','5','6','7','8','9'}, {1,11,21,31,41,51,61,71,81,91})</t>
+  </si>
+  <si>
+    <t>Maps source value to SOIL_MOIST_REG using lists of values</t>
+  </si>
+  <si>
+    <t>notNull(soil_moist_reg);notEmpty(soil_moist_reg);matchList(soil_moist_reg,{'1','2','3','4'})</t>
+  </si>
+  <si>
+    <t>notNull(soil_moist_reg);notEmpty(soil_moist_reg);matchList(soil_moist_reg,{'D','F','M','V','W'})</t>
+  </si>
+  <si>
+    <t>mapText(soil_moist_reg, {'1','2','3','4'}, {'DRY','DRY','MOIST','WET'})</t>
+  </si>
+  <si>
+    <t>mapText(soil_moist_reg, {'D','F','M','V','W'}, {'DRY','MESIC','MOIST','MESIC','WET'})</t>
+  </si>
+  <si>
+    <t>notNull(species_6);notEmpty(species_6);matchTable(species_6, 'translation', 'species_code_mapping', 'mb_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>notNull(species_per_6);isInt(species_per_6|-9997);isBetween(species_per_6, 1, 10|-9997)</t>
+  </si>
+  <si>
+    <t>lookupText(species_6, 'translation', 'species_code_mapping', 'mb_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>mapInt(species_per_6, {1,2,3,4,5,6,7,8,9,10}, {10,20,30,40,50,60,70,80,90,100})</t>
+  </si>
+  <si>
+    <t>lookupText(species_5, 'translation', 'species_code_mapping', 'mb_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_4, 'translation', 'species_code_mapping', 'mb_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_3, 'translation', 'species_code_mapping', 'mb_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_2, 'translation', 'species_code_mapping', 'mb_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>lookupText(species_1, 'translation', 'species_code_mapping', 'mb_species_codes', 'casfri_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>notNull(species_1);notEmpty(species_1);matchTable(species_1, 'translation', 'species_code_mapping', 'mb_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>notNull(species_2);notEmpty(species_2);matchTable(species_2, 'translation', 'species_code_mapping', 'mb_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>notNull(species_3);notEmpty(species_3);matchTable(species_3, 'translation', 'species_code_mapping', 'mb_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>notNull(species_4);notEmpty(species_4);matchTable(species_4, 'translation', 'species_code_mapping', 'mb_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t>notNull(species_5);notEmpty(species_5);matchTable(species_5, 'translation', 'species_code_mapping', 'mb_species_codes', 'TRUE')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps source value to SPECIES_PER_6 by multiplying by 10. </t>
+  </si>
+  <si>
+    <t>Maps source value to SPECIES_6 using lookup table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -3007,6 +3066,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3371,7 +3436,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3384,50 +3449,51 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3743,15 +3809,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -10595,7 +10661,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="3" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>76</v>
@@ -10610,10 +10676,10 @@
         <v>539</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="T90" s="3" t="s">
         <v>340</v>
@@ -10625,7 +10691,7 @@
         <v>98</v>
       </c>
       <c r="X90" s="3" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="Y90" s="3" t="s">
         <v>100</v>
@@ -10649,22 +10715,22 @@
         <v>106</v>
       </c>
       <c r="AF90" s="3" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="AG90" s="3" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="AH90" s="3" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="AQ90" s="3" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AR90" s="3" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="AS90" s="3" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="BQ90" s="3" t="s">
         <v>76</v>
@@ -10786,13 +10852,13 @@
         <v>43</v>
       </c>
       <c r="AU92" s="5" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="AV92" s="5" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="AW92" s="5" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="AZ92" s="5" t="s">
         <v>51</v>
@@ -10848,7 +10914,7 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="5" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>76</v>
@@ -10863,13 +10929,13 @@
         <v>647</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="S93" s="5" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="T93" s="5" t="s">
         <v>340</v>
@@ -10881,7 +10947,7 @@
         <v>98</v>
       </c>
       <c r="X93" s="5" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="Y93" s="5" t="s">
         <v>100</v>
@@ -10905,13 +10971,13 @@
         <v>106</v>
       </c>
       <c r="AF93" s="5" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="AG93" s="5" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="AH93" s="5" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="AQ93" s="5" t="s">
         <v>108</v>
@@ -10923,7 +10989,7 @@
         <v>110</v>
       </c>
       <c r="BA93" s="5" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="BB93" s="5" t="s">
         <v>556</v>
@@ -10935,7 +11001,7 @@
         <v>113</v>
       </c>
       <c r="BE93" s="5" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="BF93" s="5" t="s">
         <v>558</v>
@@ -10968,61 +11034,61 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="P94" s="5" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="S94" s="5" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="T94" s="5" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="W94" s="5" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="X94" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="Y94" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z94" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="Y94" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="Z94" s="5" t="s">
-        <v>865</v>
-      </c>
       <c r="AA94" s="5" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="AB94" s="5" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="AD94" s="5" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="AE94" s="5" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="AF94" s="5" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="AG94" s="5" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="AH94" s="5" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="AQ94" s="5" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="AR94" s="5" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
     </row>
     <row r="95" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -11046,61 +11112,61 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="P95" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="U95" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="W95" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="X95" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="Y95" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="R95" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="S95" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="T95" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="U95" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="W95" s="5" t="s">
+      <c r="Z95" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA95" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="X95" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="Y95" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="Z95" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="AA95" s="5" t="s">
-        <v>869</v>
-      </c>
       <c r="AB95" s="5" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="AD95" s="5" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="AE95" s="5" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="AF95" s="5" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="AG95" s="5" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="AH95" s="5" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="AQ95" s="5" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="AR95" s="5" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -11124,61 +11190,61 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="P96" s="5" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="T96" s="5" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="W96" s="5" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="X96" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="Z96" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="AA96" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="AB96" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="Y96" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="Z96" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="AA96" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="AB96" s="5" t="s">
-        <v>874</v>
-      </c>
       <c r="AC96" s="5" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="AD96" s="5" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="AE96" s="5" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="AF96" s="5" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="AG96" s="5" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="AH96" s="5" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="AQ96" s="5" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="AR96" s="5" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
     </row>
     <row r="97" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -11202,61 +11268,61 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="P97" s="5" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="T97" s="5" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="W97" s="5" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="X97" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="Y97" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="Z97" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="AA97" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="AB97" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="Y97" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="Z97" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="AA97" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="AB97" s="5" t="s">
-        <v>875</v>
-      </c>
       <c r="AC97" s="5" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="AD97" s="5" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="AE97" s="5" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="AF97" s="5" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="AG97" s="5" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="AH97" s="5" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AQ97" s="5" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="AR97" s="5" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="98" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11280,16 +11346,16 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="P98" s="8" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="AU98" s="8" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="AV98" s="8" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="AW98" s="8" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -11299,14 +11365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE4173C-626E-4EDB-B463-AE921F199E3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F38" sqref="D27:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -11658,14 +11724,14 @@
       <c r="C18" t="s">
         <v>660</v>
       </c>
-      <c r="D18" t="s">
-        <v>707</v>
-      </c>
-      <c r="E18" t="s">
-        <v>708</v>
-      </c>
-      <c r="F18" t="s">
-        <v>699</v>
+      <c r="D18" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>945</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -11751,13 +11817,13 @@
         <v>677</v>
       </c>
       <c r="D22" t="s">
+        <v>942</v>
+      </c>
+      <c r="E22" t="s">
+        <v>943</v>
+      </c>
+      <c r="F22" t="s">
         <v>716</v>
-      </c>
-      <c r="E22" t="s">
-        <v>717</v>
-      </c>
-      <c r="F22" t="s">
-        <v>718</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -11768,19 +11834,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C23" t="s">
         <v>677</v>
       </c>
       <c r="D23" t="s">
+        <v>942</v>
+      </c>
+      <c r="E23" t="s">
+        <v>944</v>
+      </c>
+      <c r="F23" t="s">
         <v>716</v>
-      </c>
-      <c r="E23" t="s">
-        <v>720</v>
-      </c>
-      <c r="F23" t="s">
-        <v>718</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -11791,19 +11857,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C24" t="s">
         <v>685</v>
       </c>
       <c r="D24" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E24" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F24" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -11814,19 +11880,19 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C25" t="s">
         <v>685</v>
       </c>
       <c r="D25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E25" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -11837,7 +11903,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C26" t="s">
         <v>660</v>
@@ -11849,7 +11915,7 @@
         <v>708</v>
       </c>
       <c r="F26" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -11860,19 +11926,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C27" t="s">
         <v>660</v>
       </c>
       <c r="D27" t="s">
-        <v>732</v>
+        <v>959</v>
       </c>
       <c r="E27" t="s">
-        <v>733</v>
+        <v>958</v>
       </c>
       <c r="F27" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -11883,19 +11949,19 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C28" t="s">
         <v>677</v>
       </c>
       <c r="D28" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E28" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F28" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -11906,19 +11972,19 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C29" t="s">
         <v>660</v>
       </c>
       <c r="D29" t="s">
-        <v>740</v>
+        <v>960</v>
       </c>
       <c r="E29" t="s">
-        <v>741</v>
+        <v>957</v>
       </c>
       <c r="F29" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -11929,19 +11995,19 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C30" t="s">
         <v>677</v>
       </c>
       <c r="D30" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E30" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F30" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -11952,19 +12018,19 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C31" t="s">
         <v>660</v>
       </c>
       <c r="D31" t="s">
-        <v>748</v>
+        <v>961</v>
       </c>
       <c r="E31" t="s">
-        <v>749</v>
+        <v>956</v>
       </c>
       <c r="F31" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -11975,19 +12041,19 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="C32" t="s">
         <v>677</v>
       </c>
       <c r="D32" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E32" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F32" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -11998,19 +12064,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C33" t="s">
         <v>660</v>
       </c>
       <c r="D33" t="s">
-        <v>756</v>
+        <v>962</v>
       </c>
       <c r="E33" t="s">
-        <v>757</v>
+        <v>955</v>
       </c>
       <c r="F33" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -12021,19 +12087,19 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="C34" t="s">
         <v>677</v>
       </c>
       <c r="D34" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="E34" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F34" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -12044,19 +12110,19 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C35" t="s">
         <v>660</v>
       </c>
       <c r="D35" t="s">
-        <v>764</v>
+        <v>963</v>
       </c>
       <c r="E35" t="s">
-        <v>765</v>
+        <v>954</v>
       </c>
       <c r="F35" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -12067,19 +12133,19 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C36" t="s">
         <v>677</v>
       </c>
       <c r="D36" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="E36" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="F36" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -12090,19 +12156,19 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="C37" t="s">
         <v>660</v>
       </c>
       <c r="D37" t="s">
-        <v>697</v>
+        <v>950</v>
       </c>
       <c r="E37" t="s">
-        <v>708</v>
+        <v>952</v>
       </c>
       <c r="F37" t="s">
-        <v>699</v>
+        <v>965</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -12113,19 +12179,19 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="C38" t="s">
         <v>677</v>
       </c>
       <c r="D38" t="s">
-        <v>697</v>
+        <v>951</v>
       </c>
       <c r="E38" t="s">
-        <v>698</v>
+        <v>953</v>
       </c>
       <c r="F38" t="s">
-        <v>699</v>
+        <v>964</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -12136,7 +12202,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C39" t="s">
         <v>660</v>
@@ -12159,7 +12225,7 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C40" t="s">
         <v>677</v>
@@ -12182,7 +12248,7 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C41" t="s">
         <v>660</v>
@@ -12205,7 +12271,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="C42" t="s">
         <v>677</v>
@@ -12228,7 +12294,7 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C43" t="s">
         <v>660</v>
@@ -12251,7 +12317,7 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="C44" t="s">
         <v>677</v>
@@ -12274,7 +12340,7 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C45" t="s">
         <v>660</v>
@@ -12297,7 +12363,7 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C46" t="s">
         <v>677</v>
@@ -12320,19 +12386,19 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C47" t="s">
         <v>677</v>
       </c>
-      <c r="D47" t="s">
-        <v>697</v>
-      </c>
-      <c r="E47" t="s">
-        <v>698</v>
-      </c>
-      <c r="F47" t="s">
-        <v>699</v>
+      <c r="D47" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>938</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -12343,19 +12409,19 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="C48" t="s">
         <v>677</v>
       </c>
-      <c r="D48" t="s">
-        <v>697</v>
-      </c>
-      <c r="E48" t="s">
-        <v>698</v>
-      </c>
-      <c r="F48" t="s">
-        <v>699</v>
+      <c r="D48" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>941</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -12366,19 +12432,19 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="C49" t="s">
         <v>660</v>
       </c>
       <c r="D49" t="s">
-        <v>697</v>
+        <v>933</v>
       </c>
       <c r="E49" t="s">
-        <v>708</v>
+        <v>934</v>
       </c>
       <c r="F49" t="s">
-        <v>699</v>
+        <v>935</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -12389,7 +12455,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="C50" t="s">
         <v>685</v>
@@ -12398,7 +12464,7 @@
         <v>697</v>
       </c>
       <c r="E50" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F50" t="s">
         <v>699</v>
@@ -12409,7 +12475,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -12446,16 +12512,16 @@
         <v>702</v>
       </c>
       <c r="D54" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="E54" t="s">
         <v>702</v>
       </c>
       <c r="F54" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G54" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -12561,7 +12627,7 @@
         <v>677</v>
       </c>
       <c r="D59" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="E59" t="s">
         <v>698</v>
@@ -12601,7 +12667,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C61" t="s">
         <v>677</v>
@@ -12624,7 +12690,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C62" t="s">
         <v>685</v>
@@ -12633,7 +12699,7 @@
         <v>697</v>
       </c>
       <c r="E62" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F62" t="s">
         <v>699</v>
@@ -12647,7 +12713,7 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C63" t="s">
         <v>685</v>
@@ -12656,7 +12722,7 @@
         <v>697</v>
       </c>
       <c r="E63" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F63" t="s">
         <v>699</v>
@@ -12670,19 +12736,19 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="C64" t="s">
         <v>660</v>
       </c>
       <c r="D64" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="E64" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="F64" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -12693,19 +12759,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="C65" t="s">
         <v>660</v>
       </c>
       <c r="D65" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="E65" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F65" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -12716,19 +12782,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="C66" t="s">
         <v>660</v>
       </c>
       <c r="D66" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="E66" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="F66" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -12736,7 +12802,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -12773,16 +12839,16 @@
         <v>702</v>
       </c>
       <c r="D70" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="E70" t="s">
         <v>702</v>
       </c>
       <c r="F70" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="G70" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -12813,19 +12879,19 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="C72" t="s">
         <v>660</v>
       </c>
       <c r="D72" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="E72" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="F72" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -12836,19 +12902,19 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="C73" t="s">
         <v>677</v>
       </c>
       <c r="D73" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="E73" t="s">
         <v>698</v>
       </c>
       <c r="F73" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -12859,7 +12925,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="C74" t="s">
         <v>677</v>
@@ -12882,7 +12948,7 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="C75" t="s">
         <v>677</v>
@@ -12905,19 +12971,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C76" t="s">
         <v>660</v>
       </c>
       <c r="D76" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="E76" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F76" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -12928,19 +12994,19 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C77" t="s">
         <v>677</v>
       </c>
       <c r="D77" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="E77" t="s">
         <v>698</v>
       </c>
       <c r="F77" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -12951,7 +13017,7 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="C78" t="s">
         <v>677</v>
@@ -12974,7 +13040,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="C79" t="s">
         <v>677</v>
@@ -12997,7 +13063,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="C80" t="s">
         <v>660</v>
@@ -13020,7 +13086,7 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="C81" t="s">
         <v>677</v>
@@ -13043,7 +13109,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="C82" t="s">
         <v>677</v>
@@ -13066,7 +13132,7 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="C83" t="s">
         <v>677</v>
@@ -13098,10 +13164,10 @@
         <v>678</v>
       </c>
       <c r="E84" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="F84" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -13109,7 +13175,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -13152,10 +13218,10 @@
         <v>702</v>
       </c>
       <c r="F88" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="G88" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -13186,7 +13252,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C90" t="s">
         <v>660</v>
@@ -13209,7 +13275,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C91" t="s">
         <v>660</v>
@@ -13232,7 +13298,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="C92" t="s">
         <v>660</v>
@@ -13255,7 +13321,7 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C93" t="s">
         <v>660</v>
@@ -13278,7 +13344,7 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="C94" t="s">
         <v>660</v>
@@ -13298,7 +13364,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -13352,19 +13418,19 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="E99" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="F99" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -13376,14 +13442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB09C3F-18DD-4809-8D44-E67EF02FE17A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -13527,7 +13593,7 @@
         <v>678</v>
       </c>
       <c r="E7" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="F7" t="s">
         <v>680</v>
@@ -13735,14 +13801,14 @@
       <c r="C18" t="s">
         <v>660</v>
       </c>
-      <c r="D18" t="s">
-        <v>707</v>
-      </c>
-      <c r="E18" t="s">
-        <v>708</v>
-      </c>
-      <c r="F18" t="s">
-        <v>699</v>
+      <c r="D18" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>945</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -13785,7 +13851,7 @@
         <v>678</v>
       </c>
       <c r="E20" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="F20" t="s">
         <v>680</v>
@@ -13828,13 +13894,13 @@
         <v>677</v>
       </c>
       <c r="D22" t="s">
+        <v>942</v>
+      </c>
+      <c r="E22" t="s">
+        <v>943</v>
+      </c>
+      <c r="F22" t="s">
         <v>716</v>
-      </c>
-      <c r="E22" t="s">
-        <v>717</v>
-      </c>
-      <c r="F22" t="s">
-        <v>718</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -13845,19 +13911,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C23" t="s">
         <v>677</v>
       </c>
       <c r="D23" t="s">
+        <v>942</v>
+      </c>
+      <c r="E23" t="s">
+        <v>944</v>
+      </c>
+      <c r="F23" t="s">
         <v>716</v>
-      </c>
-      <c r="E23" t="s">
-        <v>720</v>
-      </c>
-      <c r="F23" t="s">
-        <v>718</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -13868,19 +13934,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C24" t="s">
         <v>685</v>
       </c>
       <c r="D24" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E24" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F24" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -13891,19 +13957,19 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C25" t="s">
         <v>685</v>
       </c>
       <c r="D25" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E25" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F25" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -13914,7 +13980,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C26" t="s">
         <v>660</v>
@@ -13926,7 +13992,7 @@
         <v>708</v>
       </c>
       <c r="F26" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -13937,19 +14003,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C27" t="s">
         <v>660</v>
       </c>
       <c r="D27" t="s">
-        <v>732</v>
+        <v>959</v>
       </c>
       <c r="E27" t="s">
-        <v>733</v>
+        <v>958</v>
       </c>
       <c r="F27" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -13960,19 +14026,19 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C28" t="s">
         <v>677</v>
       </c>
       <c r="D28" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E28" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F28" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -13983,19 +14049,19 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C29" t="s">
         <v>660</v>
       </c>
       <c r="D29" t="s">
-        <v>740</v>
+        <v>960</v>
       </c>
       <c r="E29" t="s">
-        <v>741</v>
+        <v>957</v>
       </c>
       <c r="F29" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -14006,19 +14072,19 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C30" t="s">
         <v>677</v>
       </c>
       <c r="D30" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E30" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F30" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -14029,19 +14095,19 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C31" t="s">
         <v>660</v>
       </c>
       <c r="D31" t="s">
-        <v>748</v>
+        <v>961</v>
       </c>
       <c r="E31" t="s">
-        <v>749</v>
+        <v>956</v>
       </c>
       <c r="F31" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -14052,19 +14118,19 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="C32" t="s">
         <v>677</v>
       </c>
       <c r="D32" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E32" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F32" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -14075,19 +14141,19 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C33" t="s">
         <v>660</v>
       </c>
       <c r="D33" t="s">
-        <v>756</v>
+        <v>962</v>
       </c>
       <c r="E33" t="s">
-        <v>757</v>
+        <v>955</v>
       </c>
       <c r="F33" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -14098,19 +14164,19 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="C34" t="s">
         <v>677</v>
       </c>
       <c r="D34" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="E34" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="F34" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -14121,19 +14187,19 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C35" t="s">
         <v>660</v>
       </c>
       <c r="D35" t="s">
-        <v>764</v>
+        <v>963</v>
       </c>
       <c r="E35" t="s">
-        <v>765</v>
+        <v>954</v>
       </c>
       <c r="F35" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -14144,19 +14210,19 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C36" t="s">
         <v>677</v>
       </c>
       <c r="D36" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="E36" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="F36" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -14167,19 +14233,19 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="C37" t="s">
         <v>660</v>
       </c>
       <c r="D37" t="s">
-        <v>697</v>
+        <v>950</v>
       </c>
       <c r="E37" t="s">
-        <v>708</v>
+        <v>952</v>
       </c>
       <c r="F37" t="s">
-        <v>699</v>
+        <v>965</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -14190,19 +14256,19 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="C38" t="s">
         <v>677</v>
       </c>
       <c r="D38" t="s">
-        <v>697</v>
+        <v>951</v>
       </c>
       <c r="E38" t="s">
-        <v>698</v>
+        <v>953</v>
       </c>
       <c r="F38" t="s">
-        <v>699</v>
+        <v>964</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -14213,7 +14279,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C39" t="s">
         <v>660</v>
@@ -14236,7 +14302,7 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C40" t="s">
         <v>677</v>
@@ -14259,7 +14325,7 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C41" t="s">
         <v>660</v>
@@ -14282,7 +14348,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="C42" t="s">
         <v>677</v>
@@ -14305,7 +14371,7 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C43" t="s">
         <v>660</v>
@@ -14328,7 +14394,7 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="C44" t="s">
         <v>677</v>
@@ -14351,7 +14417,7 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="C45" t="s">
         <v>660</v>
@@ -14374,7 +14440,7 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C46" t="s">
         <v>677</v>
@@ -14397,19 +14463,19 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C47" t="s">
         <v>677</v>
       </c>
-      <c r="D47" t="s">
-        <v>697</v>
-      </c>
-      <c r="E47" t="s">
-        <v>698</v>
-      </c>
-      <c r="F47" t="s">
-        <v>699</v>
+      <c r="D47" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>938</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -14420,19 +14486,19 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="C48" t="s">
         <v>677</v>
       </c>
-      <c r="D48" t="s">
-        <v>697</v>
-      </c>
-      <c r="E48" t="s">
-        <v>698</v>
-      </c>
-      <c r="F48" t="s">
-        <v>699</v>
+      <c r="D48" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>941</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -14443,7 +14509,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="C49" t="s">
         <v>660</v>
@@ -14466,7 +14532,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="C50" t="s">
         <v>685</v>
@@ -14475,7 +14541,7 @@
         <v>697</v>
       </c>
       <c r="E50" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F50" t="s">
         <v>699</v>
@@ -14486,7 +14552,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -14523,16 +14589,16 @@
         <v>702</v>
       </c>
       <c r="D54" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="E54" t="s">
         <v>702</v>
       </c>
       <c r="F54" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G54" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -14618,7 +14684,7 @@
         <v>678</v>
       </c>
       <c r="E58" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="F58" t="s">
         <v>680</v>
@@ -14638,7 +14704,7 @@
         <v>677</v>
       </c>
       <c r="D59" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="E59" t="s">
         <v>698</v>
@@ -14678,7 +14744,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C61" t="s">
         <v>677</v>
@@ -14701,7 +14767,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C62" t="s">
         <v>685</v>
@@ -14710,7 +14776,7 @@
         <v>697</v>
       </c>
       <c r="E62" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F62" t="s">
         <v>699</v>
@@ -14724,7 +14790,7 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C63" t="s">
         <v>685</v>
@@ -14733,7 +14799,7 @@
         <v>697</v>
       </c>
       <c r="E63" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F63" t="s">
         <v>699</v>
@@ -14747,19 +14813,19 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="C64" t="s">
         <v>660</v>
       </c>
       <c r="D64" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="E64" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="F64" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -14770,19 +14836,19 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="C65" t="s">
         <v>660</v>
       </c>
       <c r="D65" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="E65" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="F65" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -14793,19 +14859,19 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="C66" t="s">
         <v>660</v>
       </c>
       <c r="D66" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="E66" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
       <c r="F66" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
@@ -14813,7 +14879,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -14850,16 +14916,16 @@
         <v>702</v>
       </c>
       <c r="D70" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="E70" t="s">
         <v>702</v>
       </c>
       <c r="F70" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="G70" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -14890,19 +14956,19 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="C72" t="s">
         <v>660</v>
       </c>
       <c r="D72" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="E72" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="F72" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -14913,19 +14979,19 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="C73" t="s">
         <v>677</v>
       </c>
       <c r="D73" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E73" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="F73" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -14936,19 +15002,19 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="C74" t="s">
         <v>677</v>
       </c>
       <c r="D74" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="E74" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="F74" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -14959,19 +15025,19 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="C75" t="s">
         <v>677</v>
       </c>
       <c r="D75" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="E75" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="F75" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -14982,19 +15048,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C76" t="s">
         <v>660</v>
       </c>
       <c r="D76" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="E76" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F76" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -15005,19 +15071,19 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C77" t="s">
         <v>677</v>
       </c>
       <c r="D77" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="E77" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="F77" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
@@ -15028,19 +15094,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="C78" t="s">
         <v>677</v>
       </c>
       <c r="D78" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="E78" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="F78" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -15051,19 +15117,19 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="C79" t="s">
         <v>677</v>
       </c>
       <c r="D79" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="E79" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F79" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
@@ -15074,7 +15140,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="C80" t="s">
         <v>660</v>
@@ -15097,7 +15163,7 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="C81" t="s">
         <v>677</v>
@@ -15120,7 +15186,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="C82" t="s">
         <v>677</v>
@@ -15143,7 +15209,7 @@
         <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="C83" t="s">
         <v>677</v>
@@ -15175,10 +15241,10 @@
         <v>678</v>
       </c>
       <c r="E84" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="F84" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -15186,7 +15252,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -15229,10 +15295,10 @@
         <v>702</v>
       </c>
       <c r="F88" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="G88" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -15263,7 +15329,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C90" t="s">
         <v>660</v>
@@ -15286,7 +15352,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C91" t="s">
         <v>660</v>
@@ -15309,7 +15375,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="C92" t="s">
         <v>660</v>
@@ -15332,7 +15398,7 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C93" t="s">
         <v>660</v>
@@ -15355,7 +15421,7 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="C94" t="s">
         <v>660</v>
@@ -15375,7 +15441,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -15429,19 +15495,19 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
       </c>
       <c r="D99" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="E99" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="F99" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>

--- a/MB/attribute_dependencies.xlsx
+++ b/MB/attribute_dependencies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_dependencies" sheetId="1" r:id="rId1"/>
@@ -3436,7 +3436,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3450,6 +3450,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3812,9 +3813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR98"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N93" sqref="N93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11368,9 +11369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F38" sqref="D27:F38"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11383,345 +11382,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>651</v>
       </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G10" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
+      <c r="G12" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="13" t="s">
         <v>700</v>
       </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="13">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="G16" t="b">
+      <c r="G16" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G17" t="b">
+      <c r="G17" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="13">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -11733,662 +11753,662 @@
       <c r="F18" s="12" t="s">
         <v>945</v>
       </c>
-      <c r="G18" t="b">
+      <c r="G18" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="13">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="G19" t="b">
+      <c r="G19" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="13">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="G20" t="b">
+      <c r="G20" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="13">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G21" t="b">
+      <c r="G21" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="13">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="G22" t="b">
+      <c r="G22" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="13">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="G23" t="b">
+      <c r="G23" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="13">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="G24" t="b">
+      <c r="G24" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="13">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G25" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="13">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G26" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="13">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="G27" t="b">
+      <c r="G27" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="13">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G28" t="b">
+      <c r="G28" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="13">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="13" t="s">
         <v>957</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G29" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="13">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="G30" t="b">
+      <c r="G30" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="13">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="13" t="s">
         <v>961</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="G31" t="b">
+      <c r="G31" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="13">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="G32" t="b">
+      <c r="G32" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="13">
         <v>17</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="13" t="s">
         <v>962</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="G33" t="b">
+      <c r="G33" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="13">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="G34" t="b">
+      <c r="G34" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="13">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="G35" t="b">
+      <c r="G35" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="13">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="G36" t="b">
+      <c r="G36" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="13">
         <v>21</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="G37" t="b">
+      <c r="G37" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="13">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="G38" t="b">
+      <c r="G38" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="13">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G39" t="b">
+      <c r="G39" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="13">
         <v>24</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G40" t="b">
+      <c r="G40" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="13">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G41" t="b">
+      <c r="G41" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="13">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G42" t="b">
+      <c r="G42" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="13">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G43" t="b">
+      <c r="G43" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="13">
         <v>28</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G44" t="b">
+      <c r="G44" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="13">
         <v>29</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G45" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="13">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G46" t="b">
+      <c r="G46" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="13">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -12400,18 +12420,18 @@
       <c r="F47" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="G47" t="b">
+      <c r="G47" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="13">
         <v>32</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D48" s="12" t="s">
@@ -12423,1016 +12443,1076 @@
       <c r="F48" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="G48" t="b">
+      <c r="G48" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="13">
         <v>33</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="G49" t="b">
+      <c r="G49" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="13">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
+      <c r="G50" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="13" t="s">
         <v>773</v>
       </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="13">
         <v>0</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="13" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="13">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G55" t="b">
+      <c r="G55" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="13">
         <v>2</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G56" t="b">
+      <c r="G56" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="13">
         <v>3</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="G57" t="b">
+      <c r="G57" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="13">
         <v>4</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="G58" t="b">
+      <c r="G58" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="13">
         <v>5</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G59" t="b">
+      <c r="G59" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="13">
         <v>6</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G60" t="b">
+      <c r="G60" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="13">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G61" t="b">
+      <c r="G61" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="13">
         <v>8</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G62" t="b">
+      <c r="G62" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="13">
         <v>9</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G63" t="b">
+      <c r="G63" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="13">
         <v>10</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="G64" t="b">
+      <c r="G64" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="13">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="G65" t="b">
+      <c r="G65" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="13">
         <v>12</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
+      <c r="G66" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="13" t="s">
         <v>790</v>
       </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="13">
         <v>0</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="13" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="13">
+        <v>1</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G71" t="b">
+      <c r="G71" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="13">
         <v>2</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="13" t="s">
         <v>793</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="13" t="s">
         <v>795</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="G72" t="b">
+      <c r="G72" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="13">
         <v>3</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="13" t="s">
         <v>797</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="13" t="s">
         <v>799</v>
       </c>
-      <c r="G73" t="b">
+      <c r="G73" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="13">
         <v>4</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G74" t="b">
+      <c r="G74" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="13">
         <v>5</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G75" t="b">
+      <c r="G75" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="13">
         <v>6</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="G76" t="b">
+      <c r="G76" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="13">
         <v>7</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="13" t="s">
         <v>807</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="G77" t="b">
+      <c r="G77" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="13">
         <v>8</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G78" t="b">
+      <c r="G78" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="13">
         <v>9</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G79" t="b">
+      <c r="G79" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="13">
         <v>10</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G80" t="b">
+      <c r="G80" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="13">
         <v>11</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G81" t="b">
+      <c r="G81" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="13">
         <v>12</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G82" t="b">
+      <c r="G82" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="13">
         <v>13</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G83" t="b">
+      <c r="G83" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="13">
         <v>14</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
+      <c r="G84" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="13" t="s">
         <v>817</v>
       </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="13">
         <v>0</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="13" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" s="13">
+        <v>1</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G89" t="b">
+      <c r="G89" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="13">
         <v>2</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G90" t="b">
+      <c r="G90" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="13">
         <v>3</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G91" t="b">
+      <c r="G91" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="13">
         <v>4</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G92" t="b">
+      <c r="G92" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="13">
         <v>5</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G93" t="b">
+      <c r="G93" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="13">
         <v>6</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
+      <c r="G94" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="13" t="s">
         <v>824</v>
       </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="13">
+        <v>1</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G98" t="b">
+      <c r="G98" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="13">
         <v>2</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="G99" t="b">
+      <c r="G99" s="13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13445,9 +13525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13460,345 +13538,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="13" t="s">
         <v>651</v>
       </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G10" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
+      <c r="G12" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="13" t="s">
         <v>700</v>
       </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="13">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="G16" t="b">
+      <c r="G16" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G17" t="b">
+      <c r="G17" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="13">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -13810,662 +13909,662 @@
       <c r="F18" s="12" t="s">
         <v>945</v>
       </c>
-      <c r="G18" t="b">
+      <c r="G18" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="13">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="G19" t="b">
+      <c r="G19" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="13">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="G20" t="b">
+      <c r="G20" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="13">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G21" t="b">
+      <c r="G21" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="13">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="13" t="s">
         <v>943</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="G22" t="b">
+      <c r="G22" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="13">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="13" t="s">
         <v>942</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="13" t="s">
         <v>944</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="G23" t="b">
+      <c r="G23" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="13">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="G24" t="b">
+      <c r="G24" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="13">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G25" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="13">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G26" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="13">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="13" t="s">
         <v>959</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="G27" t="b">
+      <c r="G27" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="13">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="G28" t="b">
+      <c r="G28" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="13">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="13" t="s">
         <v>960</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="13" t="s">
         <v>957</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G29" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="13">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="G30" t="b">
+      <c r="G30" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="13">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="13" t="s">
         <v>961</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="13" t="s">
         <v>956</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="G31" t="b">
+      <c r="G31" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="13">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="13" t="s">
         <v>743</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="G32" t="b">
+      <c r="G32" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="13">
         <v>17</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="13" t="s">
         <v>962</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="13" t="s">
         <v>955</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="G33" t="b">
+      <c r="G33" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="13">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="13" t="s">
         <v>749</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="G34" t="b">
+      <c r="G34" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="13">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="13" t="s">
         <v>963</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="13" t="s">
         <v>954</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="G35" t="b">
+      <c r="G35" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="13">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="13" t="s">
         <v>755</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="G36" t="b">
+      <c r="G36" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="13">
         <v>21</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="13" t="s">
         <v>950</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="13" t="s">
         <v>952</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="G37" t="b">
+      <c r="G37" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="13">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="13" t="s">
         <v>951</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="13" t="s">
         <v>953</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="13" t="s">
         <v>964</v>
       </c>
-      <c r="G38" t="b">
+      <c r="G38" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="13">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G39" t="b">
+      <c r="G39" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="13">
         <v>24</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="13" t="s">
         <v>761</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G40" t="b">
+      <c r="G40" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="13">
         <v>25</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G41" t="b">
+      <c r="G41" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="13">
         <v>26</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G42" t="b">
+      <c r="G42" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="13">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G43" t="b">
+      <c r="G43" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="13">
         <v>28</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G44" t="b">
+      <c r="G44" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="13">
         <v>29</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G45" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="13">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="13" t="s">
         <v>767</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G46" t="b">
+      <c r="G46" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="13">
         <v>31</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -14477,18 +14576,18 @@
       <c r="F47" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="G47" t="b">
+      <c r="G47" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="13">
         <v>32</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D48" s="12" t="s">
@@ -14500,1020 +14599,1081 @@
       <c r="F48" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="G48" t="b">
+      <c r="G48" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="13">
         <v>33</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G49" t="b">
+      <c r="G49" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="13">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
+      <c r="G50" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="13" t="s">
         <v>773</v>
       </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="13">
         <v>0</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="13" t="s">
         <v>906</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="13" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="A55" s="13">
+        <v>1</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G55" t="b">
+      <c r="G55" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="13">
         <v>2</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G56" t="b">
+      <c r="G56" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="13">
         <v>3</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="G57" t="b">
+      <c r="G57" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="13">
         <v>4</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="G58" t="b">
+      <c r="G58" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="13">
         <v>5</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G59" t="b">
+      <c r="G59" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="13">
         <v>6</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="13" t="s">
         <v>715</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G60" t="b">
+      <c r="G60" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="13">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="13" t="s">
         <v>717</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G61" t="b">
+      <c r="G61" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="13">
         <v>8</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G62" t="b">
+      <c r="G62" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="13">
         <v>9</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G63" t="b">
+      <c r="G63" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="13">
         <v>10</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="13" t="s">
         <v>903</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="13" t="s">
         <v>930</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="G64" t="b">
+      <c r="G64" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="13">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="13" t="s">
         <v>931</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="G65" t="b">
+      <c r="G65" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="13">
         <v>12</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="13" t="s">
         <v>789</v>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
+      <c r="G66" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="13" t="s">
         <v>790</v>
       </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="13">
         <v>0</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="13" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="A71" s="13">
+        <v>1</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G71" t="b">
+      <c r="G71" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="13">
         <v>2</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="13" t="s">
         <v>793</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="13" t="s">
         <v>928</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="G72" t="b">
+      <c r="G72" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="13">
         <v>3</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="13" t="s">
         <v>797</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="G73" t="b">
+      <c r="G73" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="13">
         <v>4</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="13" t="s">
         <v>909</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="13" t="s">
         <v>911</v>
       </c>
-      <c r="G74" t="b">
+      <c r="G74" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="13">
         <v>5</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="13" t="s">
         <v>801</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="13" t="s">
         <v>911</v>
       </c>
-      <c r="G75" t="b">
+      <c r="G75" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="13">
         <v>6</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="G76" t="b">
+      <c r="G76" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="13">
         <v>7</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="G77" t="b">
+      <c r="G77" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="13">
         <v>8</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="13" t="s">
         <v>809</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="G78" t="b">
+      <c r="G78" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="13">
         <v>9</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="13" t="s">
         <v>922</v>
       </c>
-      <c r="G79" t="b">
+      <c r="G79" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="13">
         <v>10</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G80" t="b">
+      <c r="G80" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="13">
         <v>11</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G81" t="b">
+      <c r="G81" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="13">
         <v>12</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G82" t="b">
+      <c r="G82" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="13">
         <v>13</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G83" t="b">
+      <c r="G83" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="13">
         <v>14</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
+      <c r="G84" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="13" t="s">
         <v>817</v>
       </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="13">
         <v>0</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="13" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="A89" s="13">
+        <v>1</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G89" t="b">
+      <c r="G89" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="13">
         <v>2</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G90" t="b">
+      <c r="G90" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="13">
         <v>3</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G91" t="b">
+      <c r="G91" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="13">
         <v>4</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G92" t="b">
+      <c r="G92" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="13">
         <v>5</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G93" t="b">
+      <c r="G93" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="13">
         <v>6</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
+      <c r="G94" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="13" t="s">
         <v>824</v>
       </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="13" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="13">
+        <v>1</v>
+      </c>
+      <c r="B98" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="G98" t="b">
+      <c r="G98" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="13">
         <v>2</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="G99" t="b">
+      <c r="G99" s="13" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MB/attribute_dependencies.xlsx
+++ b/MB/attribute_dependencies.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PierreV\CAS\MB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIVER37\Documents\github\cas\MB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB265B-BE82-41E2-A2E6-59E3A091C538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="6255" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_dependencies" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="967">
   <si>
     <t>inventory_id</t>
   </si>
@@ -2360,36 +2361,18 @@
     <t>NAT_NON_VEG</t>
   </si>
   <si>
-    <t>notNull(landtype);matchList(landtype,{'SO','SD','WW','FL'}|NOT_APPLICABLE)</t>
-  </si>
-  <si>
-    <t>mapText(landtype, {'SO','SD','WW','FL'}, {'SLIDE','SAND','LAKE','FLOOD'})</t>
-  </si>
-  <si>
     <t>Maps source value to NAT_NON_VEG using list of values.</t>
   </si>
   <si>
     <t>NON_FOR_ANTH</t>
   </si>
   <si>
-    <t>notNull(landtype);matchList(landtype,{'CL','WF','PL','RN','RD','RR','AG','EP','UR'}|NOT_APPLICABLE)</t>
-  </si>
-  <si>
-    <t>mapText(landtype, {'CL','WF','PL','RN','RD','RR','AG','EP','UR'}, {'OTHER','OTHER','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','CULTIVATED','BORROW_PIT','SETTLEMENT'})</t>
-  </si>
-  <si>
     <t>Maps source value to NON_FOR_ANTH using list of values.</t>
   </si>
   <si>
     <t>NON_FOR_VEG</t>
   </si>
   <si>
-    <t>notNull(landtype);matchList(landtype,{'AL','BO'}|NOT_APPLICABLE)</t>
-  </si>
-  <si>
-    <t>mapText(landtype,{'AL','BO'}, {'TALL_SHRUB','OPEN_MUSKEG'})</t>
-  </si>
-  <si>
     <t>Maps source value to NON_FOR_VEG using list of values.</t>
   </si>
   <si>
@@ -2813,15 +2796,6 @@
     <t>mapText(dist_type_2, {'CC','BU','WF','CL','DI','DM','IK','IB','UK','BF','SF','BF','WE','DT','BT'}, {'CUT','BURN','WINDFALL','OTHER','DISEASE','DISEASE','INSECT','INSECT','OTHER','FLOOD','FLOOD','FLOOD','WEATHER','DEAD_UNKNOWN','OTHER'})</t>
   </si>
   <si>
-    <t>mapText(landtype, {'NMB','NMC','NMF','NMR','NMS','NMM','NMG','NWL','NWR','NWF'}, {'EXPOSED_LAND','EXPOSED_LAND','ROCK_RUBBLE','ROCK_RUBBLE','SAND','EXPOSED_LAND','WATER_SEDIMENT','LAKE','RIVER','FLOOD'})</t>
-  </si>
-  <si>
-    <t>mapText(landtype, {'CIP','CIW','CIU','ASC','ASR','ASP','ASN','AIH','AIR','AIG','AII','AIW','AIA','AIF','AIU'}, {'FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','OTHER','SETTLEMENT','SETTLEMENT','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','INDUSTRIAL','INDUSTRIAL','LAGOON','FACILITY_INFRASTRUCTURE','SETTLEMENT','OTHER'})</t>
-  </si>
-  <si>
-    <t>mapText(landtype,{'SO','AL','SC','CC','HG','CS','HF','AS','HU','VI','BR','RA','CL','DL','AU'}, {'OPEN_SHRUB','TALL_SHRUB','TALL_SHRUB','TALL_SHRUB','GRAMINOIDS','TALL_SHRUB','FORBS','TALL_SHRUB','FORBS','TALL_SHRUB','BRYOD','LOW_SHRUB','BRYOD','LOW_SHRUB','LOW_SHRUB'})</t>
-  </si>
-  <si>
     <t>notNull(site);matchList(site,{'1','2','3'}|NOT_APPLICABLE)</t>
   </si>
   <si>
@@ -2919,12 +2893,42 @@
   </si>
   <si>
     <t>Maps source value to SPECIES_6 using lookup table</t>
+  </si>
+  <si>
+    <t>productivity</t>
+  </si>
+  <si>
+    <t>mapText(nnf_anth, {'NMB','NMC','NMF','NMR','NMS','NMM','NMG','NWL','NWR','NWF'}, {'EXPOSED_LAND','EXPOSED_LAND','ROCK_RUBBLE','ROCK_RUBBLE','SAND','EXPOSED_LAND','WATER_SEDIMENT','LAKE','RIVER','FLOOD'})</t>
+  </si>
+  <si>
+    <t>mapText(nnf_anth, {'CIP','CIW','CIU','ASC','ASR','ASP','ASN','AIH','AIR','AIG','AII','AIW','AIA','AIF','AIU'}, {'FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','OTHER','SETTLEMENT','SETTLEMENT','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','INDUSTRIAL','INDUSTRIAL','LAGOON','FACILITY_INFRASTRUCTURE','SETTLEMENT','OTHER'})</t>
+  </si>
+  <si>
+    <t>mapText(nnf_anth,{'SO','AL','SC','CC','HG','CS','HF','AS','HU','VI','BR','RA','CL','DL','AU'}, {'OPEN_SHRUB','TALL_SHRUB','TALL_SHRUB','TALL_SHRUB','GRAMINOIDS','TALL_SHRUB','FORBS','TALL_SHRUB','FORBS','TALL_SHRUB','BRYOD','LOW_SHRUB','BRYOD','LOW_SHRUB','LOW_SHRUB'})</t>
+  </si>
+  <si>
+    <t>notNull(productivity);matchList(productivity,{'802','803','838','839','848','900','901','991','992','993','994','995'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>mapText(productivity, {'802','803','838','839','848','900','901','991','992','993','994','995'}, {'ROCK_RUBBLE','ROCK_RUBBLE','EXPOSED_LAND','BEACH','FLOOD','LAKE','RIVER','LAKE','LAKE','LAKE','RIVER','RIVER'})</t>
+  </si>
+  <si>
+    <t>notNull(productivity);matchList(productivity,{'721','722','723','724','725','800','801','820','821','822','823','824','825','830','831','832','833','834','835'}|NOT_APPLICABLE)</t>
+  </si>
+  <si>
+    <t>mapText(productivity,{'721','722','723','724','725','800','801','820','821','822','823','824','825','830','831','832','833','834','835'}, {'TALL_SHRUB','TALL_SHRUB','TALL_SHRUB','TALL_SHRUB','TALL_SHRUB','BT','BT','GRAMINOIDS','GRAMINOIDS','GRAMINOIDS','GRAMINOIDS','GRAMINOIDS','GRAMINOIDS','OPEN_MUSKEG','OPEN_MUSKEG','OPEN_MUSKEG','OPEN_MUSKEG','OPEN_MUSKEG','GRAMINOIDS'})</t>
+  </si>
+  <si>
+    <t>mapText(productivity, {'810','811','812','813','815','816','840','841','842',843',844','845','846','847','849','851'}, {'CULTIVATED','CULTIVATED','CULTIVATED','CULTIVATED','OTHER,'CULTIVATED','FACILITY_INFRASTRUCTURE','SETTLEMENT','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','FACILITY_INFRASTRUCTURE','INDUSTRIAL','CULTIVATED','FACILITY_INFRASTRUCTURE','BORROW_PIT','FACILITY_INFRASTRUCTURE'})</t>
+  </si>
+  <si>
+    <t>notNull(productivity);matchList(productivity,{'810','811','812','813','815','816','840','841','842',843',844','845','846','847','849','851'}|NOT_APPLICABLE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3453,48 +3457,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3810,15 +3814,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomLeft" activeCell="AW96" sqref="AW96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -10632,6 +10636,15 @@
       <c r="AS89" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="AU89" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="AV89" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="AW89" s="3" t="s">
+        <v>957</v>
+      </c>
       <c r="BQ89" s="3" t="s">
         <v>76</v>
       </c>
@@ -10662,7 +10675,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="3" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>76</v>
@@ -10677,10 +10690,10 @@
         <v>539</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="T90" s="3" t="s">
         <v>340</v>
@@ -10692,7 +10705,7 @@
         <v>98</v>
       </c>
       <c r="X90" s="3" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="Y90" s="3" t="s">
         <v>100</v>
@@ -10716,22 +10729,22 @@
         <v>106</v>
       </c>
       <c r="AF90" s="3" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="AG90" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="AH90" s="3" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="AQ90" s="3" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="AR90" s="3" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="AS90" s="3" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="BQ90" s="3" t="s">
         <v>76</v>
@@ -10760,6 +10773,15 @@
       <c r="P91" s="10" t="s">
         <v>539</v>
       </c>
+      <c r="AU91" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="AV91" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="AW91" s="10" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="92" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -10853,13 +10875,13 @@
         <v>43</v>
       </c>
       <c r="AU92" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AV92" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AW92" s="5" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AZ92" s="5" t="s">
         <v>51</v>
@@ -10915,7 +10937,7 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="5" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>76</v>
@@ -10930,13 +10952,13 @@
         <v>647</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="S93" s="5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="T93" s="5" t="s">
         <v>340</v>
@@ -10948,7 +10970,7 @@
         <v>98</v>
       </c>
       <c r="X93" s="5" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="Y93" s="5" t="s">
         <v>100</v>
@@ -10972,13 +10994,13 @@
         <v>106</v>
       </c>
       <c r="AF93" s="5" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="AG93" s="5" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="AH93" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="AQ93" s="5" t="s">
         <v>108</v>
@@ -10990,7 +11012,7 @@
         <v>110</v>
       </c>
       <c r="BA93" s="5" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="BB93" s="5" t="s">
         <v>556</v>
@@ -11002,7 +11024,7 @@
         <v>113</v>
       </c>
       <c r="BE93" s="5" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="BF93" s="5" t="s">
         <v>558</v>
@@ -11035,61 +11057,61 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="P94" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="W94" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="R94" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="S94" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="T94" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="U94" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="W94" s="5" t="s">
-        <v>838</v>
-      </c>
       <c r="X94" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="Z94" s="5" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="AA94" s="5" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AB94" s="5" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AD94" s="5" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="AE94" s="5" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="AF94" s="5" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="AG94" s="5" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="AH94" s="5" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="AQ94" s="5" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="AR94" s="5" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="95" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -11113,61 +11135,61 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="P95" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="T95" s="5" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="U95" s="5" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="W95" s="5" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="X95" s="5" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="Z95" s="5" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="AA95" s="5" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="AB95" s="5" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="AD95" s="5" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="AE95" s="5" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="AF95" s="5" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="AG95" s="5" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="AH95" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="AQ95" s="5" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="AR95" s="5" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="96" spans="1:70" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -11191,61 +11213,61 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="P96" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T96" s="5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="W96" s="5" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="X96" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="Z96" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="Y96" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="Z96" s="5" t="s">
-        <v>854</v>
-      </c>
       <c r="AA96" s="5" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AB96" s="5" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="AC96" s="5" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AD96" s="5" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="AE96" s="5" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="AF96" s="5" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AG96" s="5" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="AH96" s="5" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="AQ96" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="AR96" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="97" spans="1:49" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -11269,61 +11291,61 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="P97" s="5" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="T97" s="5" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="W97" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="X97" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="Y97" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="Z97" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="Y97" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="Z97" s="5" t="s">
-        <v>855</v>
-      </c>
       <c r="AA97" s="5" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AB97" s="5" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="AC97" s="5" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="AD97" s="5" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="AE97" s="5" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AF97" s="5" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="AG97" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="AH97" s="5" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="AQ97" s="5" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="AR97" s="5" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="98" spans="1:49" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -11347,16 +11369,16 @@
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="P98" s="8" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="AU98" s="8" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AV98" s="8" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AW98" s="8" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -11366,12 +11388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -11745,13 +11769,13 @@
         <v>660</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="G18" s="13" t="b">
         <v>1</v>
@@ -11837,10 +11861,10 @@
         <v>677</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>716</v>
@@ -11860,10 +11884,10 @@
         <v>677</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>716</v>
@@ -11952,10 +11976,10 @@
         <v>660</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>729</v>
@@ -11998,10 +12022,10 @@
         <v>660</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>735</v>
@@ -12044,10 +12068,10 @@
         <v>660</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>741</v>
@@ -12090,10 +12114,10 @@
         <v>660</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>747</v>
@@ -12136,10 +12160,10 @@
         <v>660</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>753</v>
@@ -12182,13 +12206,13 @@
         <v>660</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="G37" s="13" t="b">
         <v>1</v>
@@ -12205,13 +12229,13 @@
         <v>677</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="G38" s="13" t="b">
         <v>1</v>
@@ -12412,13 +12436,13 @@
         <v>677</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="G47" s="13" t="b">
         <v>1</v>
@@ -12435,13 +12459,13 @@
         <v>677</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="G48" s="13" t="b">
         <v>1</v>
@@ -12458,13 +12482,13 @@
         <v>660</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="G49" s="13" t="b">
         <v>1</v>
@@ -12777,13 +12801,13 @@
         <v>660</v>
       </c>
       <c r="D64" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>779</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>781</v>
       </c>
       <c r="G64" s="13" t="b">
         <v>1</v>
@@ -12794,19 +12818,19 @@
         <v>11</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>783</v>
+        <v>966</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>784</v>
+        <v>965</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G65" s="13" t="b">
         <v>1</v>
@@ -12817,19 +12841,19 @@
         <v>12</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>787</v>
+        <v>963</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>788</v>
+        <v>964</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G66" s="13" t="b">
         <v>1</v>
@@ -12846,7 +12870,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -12889,13 +12913,13 @@
         <v>702</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>702</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>776</v>
@@ -12929,19 +12953,19 @@
         <v>2</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G72" s="13" t="b">
         <v>1</v>
@@ -12952,19 +12976,19 @@
         <v>3</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>698</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G73" s="13" t="b">
         <v>1</v>
@@ -12975,7 +12999,7 @@
         <v>4</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>677</v>
@@ -12998,7 +13022,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>677</v>
@@ -13021,19 +13045,19 @@
         <v>6</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G76" s="13" t="b">
         <v>1</v>
@@ -13044,19 +13068,19 @@
         <v>7</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>698</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G77" s="13" t="b">
         <v>1</v>
@@ -13067,7 +13091,7 @@
         <v>8</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>677</v>
@@ -13090,7 +13114,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>677</v>
@@ -13113,7 +13137,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>660</v>
@@ -13136,7 +13160,7 @@
         <v>11</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>677</v>
@@ -13159,7 +13183,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>677</v>
@@ -13182,7 +13206,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>677</v>
@@ -13214,10 +13238,10 @@
         <v>678</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G84" s="13" t="b">
         <v>1</v>
@@ -13234,7 +13258,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -13283,7 +13307,7 @@
         <v>702</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>776</v>
@@ -13317,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>660</v>
@@ -13340,7 +13364,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>660</v>
@@ -13363,7 +13387,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>660</v>
@@ -13386,7 +13410,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>660</v>
@@ -13409,7 +13433,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>660</v>
@@ -13438,7 +13462,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -13498,19 +13522,19 @@
         <v>2</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G99" s="13" t="b">
         <v>1</v>
@@ -13522,12 +13546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -13677,7 +13703,7 @@
         <v>678</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>680</v>
@@ -13901,13 +13927,13 @@
         <v>660</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="G18" s="13" t="b">
         <v>1</v>
@@ -13950,7 +13976,7 @@
         <v>678</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>680</v>
@@ -13993,10 +14019,10 @@
         <v>677</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>716</v>
@@ -14016,10 +14042,10 @@
         <v>677</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>716</v>
@@ -14108,10 +14134,10 @@
         <v>660</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>729</v>
@@ -14154,10 +14180,10 @@
         <v>660</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>735</v>
@@ -14200,10 +14226,10 @@
         <v>660</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>741</v>
@@ -14246,10 +14272,10 @@
         <v>660</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>747</v>
@@ -14292,10 +14318,10 @@
         <v>660</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>753</v>
@@ -14338,13 +14364,13 @@
         <v>660</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="G37" s="13" t="b">
         <v>1</v>
@@ -14361,13 +14387,13 @@
         <v>677</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="G38" s="13" t="b">
         <v>1</v>
@@ -14568,13 +14594,13 @@
         <v>677</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="G47" s="13" t="b">
         <v>1</v>
@@ -14591,13 +14617,13 @@
         <v>677</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="G48" s="13" t="b">
         <v>1</v>
@@ -14703,7 +14729,7 @@
         <v>702</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>702</v>
@@ -14798,7 +14824,7 @@
         <v>678</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>680</v>
@@ -14933,13 +14959,13 @@
         <v>660</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G64" s="13" t="b">
         <v>1</v>
@@ -14950,19 +14976,19 @@
         <v>11</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G65" s="13" t="b">
         <v>1</v>
@@ -14973,19 +14999,19 @@
         <v>12</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G66" s="13" t="b">
         <v>1</v>
@@ -15002,7 +15028,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -15045,13 +15071,13 @@
         <v>702</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>702</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>776</v>
@@ -15085,19 +15111,19 @@
         <v>2</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="G72" s="13" t="b">
         <v>1</v>
@@ -15108,19 +15134,19 @@
         <v>3</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G73" s="13" t="b">
         <v>1</v>
@@ -15131,19 +15157,19 @@
         <v>4</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="G74" s="13" t="b">
         <v>1</v>
@@ -15154,19 +15180,19 @@
         <v>5</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="G75" s="13" t="b">
         <v>1</v>
@@ -15177,19 +15203,19 @@
         <v>6</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>660</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G76" s="13" t="b">
         <v>1</v>
@@ -15200,19 +15226,19 @@
         <v>7</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="G77" s="13" t="b">
         <v>1</v>
@@ -15223,19 +15249,19 @@
         <v>8</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="G78" s="13" t="b">
         <v>1</v>
@@ -15246,19 +15272,19 @@
         <v>9</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>677</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G79" s="13" t="b">
         <v>1</v>
@@ -15269,7 +15295,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>660</v>
@@ -15292,7 +15318,7 @@
         <v>11</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>677</v>
@@ -15315,7 +15341,7 @@
         <v>12</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>677</v>
@@ -15338,7 +15364,7 @@
         <v>13</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>677</v>
@@ -15370,10 +15396,10 @@
         <v>678</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G84" s="13" t="b">
         <v>1</v>
@@ -15390,7 +15416,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -15439,7 +15465,7 @@
         <v>702</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>776</v>
@@ -15473,7 +15499,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>660</v>
@@ -15496,7 +15522,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>660</v>
@@ -15519,7 +15545,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>660</v>
@@ -15542,7 +15568,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>660</v>
@@ -15565,7 +15591,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>660</v>
@@ -15594,7 +15620,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -15654,19 +15680,19 @@
         <v>2</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G99" s="13" t="b">
         <v>1</v>
